--- a/导表工具/G-公告列表.xlsx
+++ b/导表工具/G-公告列表.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\h10-d\trunk\表格导出\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="公告配置" sheetId="1" r:id="rId1"/>
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -26,14 +21,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -42,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,14 +45,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -68,7 +60,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -81,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="455">
   <si>
     <t>导出类型</t>
   </si>
@@ -1118,55 +1109,55 @@
     <t>跨服淘汰赛结束</t>
   </si>
   <si>
-    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服淘汰赛】|龙争虎斗，|C:0x16b2ff&amp;T:%s[s%d]|晋级|C:0x00FF00&amp;T:64强|，进入晋级赛！"</t>
+    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服淘汰赛】|龙争虎斗，|C:0x16b2ff&amp;T:%s[%s]|晋级|C:0x00FF00&amp;T:64强|，进入晋级赛！"</t>
   </si>
   <si>
     <t>跨服64-进32强</t>
   </si>
   <si>
-    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服32强赛】|激战连连，|C:0x16b2ff&amp;T:%s[s%d]|击败|C:0x16b2ff&amp;T:%s[s%d]|成为|C:0x00ff00&amp;T:32强|之一！"</t>
+    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服32强赛】|激战连连，|C:0x16b2ff&amp;T:%s[%s]|击败|C:0x16b2ff&amp;T:%s[%s]|成为|C:0x00ff00&amp;T:32强|之一！"</t>
   </si>
   <si>
     <t>跨服32-进16强</t>
   </si>
   <si>
-    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服16强赛】|刀光剑影，|C:0x16b2ff&amp;T:%s[s%d]|击败|C:0x16b2ff&amp;T:%s[s%d]|成为|C:0x00ff00&amp;T:16强|之一！"</t>
+    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服16强赛】|刀光剑影，|C:0x16b2ff&amp;T:%s[%s]|击败|C:0x16b2ff&amp;T:%s[%s]|成为|C:0x00ff00&amp;T:16强|之一！"</t>
   </si>
   <si>
     <t>跨服16-进8强</t>
   </si>
   <si>
-    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服8强赛】|战火滔天，血溅四方，|C:0x16b2ff&amp;T:%s[s%d]|击败|C:0x16b2ff&amp;T:%s[s%d]|成为|C:0x00ff00&amp;T:8强|之一！"</t>
+    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服8强赛】|战火滔天，血溅四方，|C:0x16b2ff&amp;T:%s[%s]|击败|C:0x16b2ff&amp;T:%s[%s]|成为|C:0x00ff00&amp;T:8强|之一！"</t>
   </si>
   <si>
     <t>跨服8-进4强</t>
   </si>
   <si>
-    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服4强赛】|巅峰赛季新出捷报，|C:0x16b2ff&amp;T:%s[s%d]|用犀利的战术击败|C:0x16b2ff&amp;T:%s[s%d]|晋级|C:0x00ff00&amp;T:4强|！"</t>
+    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服4强赛】|巅峰赛季新出捷报，|C:0x16b2ff&amp;T:%s[%s]|用犀利的战术击败|C:0x16b2ff&amp;T:%s[%s]|晋级|C:0x00ff00&amp;T:4强|！"</t>
   </si>
   <si>
     <t>跨服4-进半决赛</t>
   </si>
   <si>
-    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服半决赛】|狼烟四起，战火纷飞！电闪雷鸣之际，|C:0x16b2ff&amp;T:%s[s%d]|击败|C:0x16b2ff&amp;T:%s[s%d]|晋级|C:0x00ff00&amp;T:总决赛|！"</t>
+    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服半决赛】|狼烟四起，战火纷飞！电闪雷鸣之际，|C:0x16b2ff&amp;T:%s[%s]|击败|C:0x16b2ff&amp;T:%s[%s]|晋级|C:0x00ff00&amp;T:总决赛|！"</t>
   </si>
   <si>
     <t>跨服总决赛</t>
   </si>
   <si>
-    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服总决赛】|经过九九八十一天的惊世激战，总决赛中|C:0x16b2ff&amp;T:%s[s%d]|击败|C:0x16b2ff&amp;T:%s[s%d]|，|C:0x00ff00&amp;T:至尊第一强者|诞生！"</t>
+    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服总决赛】|经过九九八十一天的惊世激战，总决赛中|C:0x16b2ff&amp;T:%s[%s]|击败|C:0x16b2ff&amp;T:%s[%s]|，|C:0x00ff00&amp;T:至尊第一强者|诞生！"</t>
   </si>
   <si>
     <t>跨服冠军上线</t>
   </si>
   <si>
-    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服赛】|C:0xFFFF00&amp;T:冠军|C:0x16b2ff&amp;T:%s[s%d]|脚踏七彩祥云震撼登场，千秋万世，一统传奇！"</t>
+    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服赛】|C:0xFFFF00&amp;T:冠军|C:0x16b2ff&amp;T:%s[%s]|脚踏七彩祥云震撼登场，千秋万世，一统传奇！"</t>
   </si>
   <si>
     <t>跨服亚军上线</t>
   </si>
   <si>
-    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服赛】|C:0xFFFF00&amp;T:亚军|C:0x16b2ff&amp;T:%s[s%d]|手持稀世神武华丽登场，万人膜拜，千古流传！"</t>
+    <t>"|C:0xff0000&amp;T:【巅峰赛季跨服赛】|C:0xFFFF00&amp;T:亚军|C:0x16b2ff&amp;T:%s[%s]|手持稀世神武华丽登场，万人膜拜，千古流传！"</t>
   </si>
   <si>
     <t>金色图鉴包·倾国倾城</t>
@@ -1232,19 +1223,19 @@
     <t>他服玩家进入本服的本服公告</t>
   </si>
   <si>
-    <t>"|C:0x16b2ff&amp;T:s%d服|玩家|C:0x16b2ff&amp;T:%s[s%d]|C:0xff0000&amp;T:强势进入了|C:0x00ff00&amp;T:本服领地|，祝他好运吧！"</t>
+    <t>"|C:0x16b2ff&amp;T:%s服|玩家|C:0x16b2ff&amp;T:%s[%s]|C:0xff0000&amp;T:强势进入了|C:0x00ff00&amp;T:本服领地|，祝他好运吧！"</t>
   </si>
   <si>
     <t>他服玩家进入本服的他服公告</t>
   </si>
   <si>
-    <t>"|C:0x16b2ff&amp;T:%s[s%d]|自信地进入了|C:0x00ff00&amp;T:s%d跨服战场|，祝他好运吧！"</t>
+    <t>"|C:0x16b2ff&amp;T:%s[%s]|自信地进入了|C:0x00ff00&amp;T:%s跨服战场|，祝他好运吧！"</t>
   </si>
   <si>
     <t>跨服BOSS刷新</t>
   </si>
   <si>
-    <t>"BOSS|C:0x00ff00&amp;T:%s|出现在|C:0x00ff00&amp;T:s%d跨服战场|！"</t>
+    <t>"BOSS|C:0x00ff00&amp;T:%s|出现在|C:0x00ff00&amp;T:%s跨服战场|！"</t>
   </si>
   <si>
     <t>苍月岛BOSS刷新</t>
@@ -1253,10 +1244,10 @@
     <t>"BOSS|C:0x00ff00&amp;T:%s|出现在|C:0x00ff00&amp;T:跨服苍月岛神殿|！"</t>
   </si>
   <si>
-    <t>"|C:0x16b2ff&amp;T:%s[s%d]|在|C:0x00ff00&amp;T:s%d跨服战场|击败了|C:0xffb82a&amp;T:%s|，获得极品|C:0xff0000&amp;T:%s|"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s[s%d]|在|C:0x00ff00&amp;T:苍月岛|击败了|C:0xffb82a&amp;T:%s|，获得极品|C:0xff0000&amp;T:%s|"</t>
+    <t>"|C:0x16b2ff&amp;T:%s[%s]|在|C:0x00ff00&amp;T:%s跨服战场|击败了|C:0xffb82a&amp;T:%s|，获得极品|C:0xff0000&amp;T:%s|"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s[%s]|在|C:0x00ff00&amp;T:苍月岛|击败了|C:0xffb82a&amp;T:%s|，获得极品|C:0xff0000&amp;T:%s|"</t>
   </si>
   <si>
     <t>战灵活动转盘</t>
@@ -1268,361 +1259,244 @@
     <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在战灵转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:海魂装备|"</t>
   </si>
   <si>
+    <t>"|C:0x16b2ff&amp;T:%s|战灵等阶达到了|C:0xFF0000&amp;T:3阶10级|，领取了|C:0x00ff00&amp;T:战灵竞技奖励|，傲视群雄！"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s[%s]|自信地进入了|C:0x00ff00&amp;T:跨服苍月岛神殿|，祝他好运吧！"</t>
+  </si>
+  <si>
+    <t>小年翅膀转盘</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在幸运转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:龙翔九天|"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在幸运转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:至尊3阶神羽|"</t>
+  </si>
+  <si>
+    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在谁与争锋-限时寻宝中获得了|C:0xff00ff&amp;T:%s|"</t>
+  </si>
+  <si>
+    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在谁与争锋-限时寻宝中获得了|C:0xFF9900&amp;T:%s|"</t>
+  </si>
+  <si>
+    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在谁与争锋-限时寻宝中获得了|C:0xff0000&amp;T:%s|"</t>
+  </si>
+  <si>
+    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在谁与争锋-限时寻宝中获得了|C:0xFFFF00&amp;T:%s|"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|领取了谁与争锋活动内的|C:0xFF0000&amp;T:材料礼包|，战力飙升！"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|领取了谁与争锋活动内的|C:0xFF0000&amp;T:传世礼包|，战力飙升！"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|领取了谁与争锋活动内的|C:0xFF0000&amp;T:战神礼包|，战力飙升！"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|领取了谁与争锋活动内的|C:0xFF0000&amp;T:热血礼包|，战力飙升！"</t>
+  </si>
+  <si>
+    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在限时寻宝中获得了|C:0xff0000&amp;T:%s|"</t>
+  </si>
+  <si>
+    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在限时寻宝中获得了|C:0xFFFF00&amp;T:%s|"</t>
+  </si>
+  <si>
+    <t>暗之秘境隐藏BOSS</t>
+  </si>
+  <si>
+    <t>"恭喜|C:0x16b2ff&amp;T:%s|运气逆天，在|C:0xff00ff&amp;T:暗之秘境|遇到|C:0xff0000&amp;T:隐藏BOSS|，极品装备唾手可得！"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|领取了开门红活动内的|C:0xFF0000&amp;T:材料礼包|，战力飙升！"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|领取了开门红活动内的|C:0xFF0000&amp;T:兽神礼包|，战力飙升！"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|领取了开门红活动内的|C:0xFF0000&amp;T:至尊兽神|，战力飙升！"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|领取了开门红活动内的|C:0xFF0000&amp;T:热血礼包|，战力飙升！"</t>
+  </si>
+  <si>
+    <t>轮回宝箱（11转）</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|在开启福袋时鸿运当头，获得了|C:0xf3311e&amp;T:11转宝箱|"</t>
+  </si>
+  <si>
+    <t>魔界入侵BOSS刷新</t>
+  </si>
+  <si>
+    <t>"BOSS|C:0xff0000&amp;T:%s|出现在|C:0xff00ff&amp;T:魔界入侵|！"</t>
+  </si>
+  <si>
+    <t>"|C:0x00ff00&amp;T:%s[%s]|行会在|C:0xff00ff&amp;T:魔界入侵|击杀|C:0xff0000&amp;T:%s|，获得行会拍卖品|C:0xff0000&amp;T:%s|"</t>
+  </si>
+  <si>
+    <t>龙抬头转盘</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在幸运转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:加持之印|"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在幸运转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:迅疾之印|"</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在幸运转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:爆裂之印|"</t>
+  </si>
+  <si>
+    <t>跨服竞技场世界邀请</t>
+  </si>
+  <si>
+    <t>"[|C:0x16B2FF&amp;T:%s|]创建了跨服竞技场战队，急需强力队友一起开黑！|E:2,%d,&amp;U:&amp;C:0x00FF00&amp;T:快速加入"</t>
+  </si>
+  <si>
+    <t>跨服3V3 首采</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s.%s|C:0xd242fb&amp;T:一马当先，勇夺第一本|C:0xFFFF00&amp;T:天书|C:0xd242fb&amp;T:！|"</t>
+  </si>
+  <si>
+    <t>跨服3V3 首杀</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s.%s|C:0xd242fb&amp;T:手起刀落，击杀|C:0x16b2ff&amp;T:%s.%s|C:0xd242fb&amp;T:，夺得第一滴血！|"</t>
+  </si>
+  <si>
+    <t>跨服3V3 连杀3人</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s.%s|C:0x00ff00&amp;T:正在大杀特杀！|"</t>
+  </si>
+  <si>
+    <t>跨服3V3 连杀4人</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s.%s|C:0xd242fb&amp;T:已经主宰比赛！|"</t>
+  </si>
+  <si>
+    <t>跨服3V3 连杀5人</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s.%s|C:0xFF00FF&amp;T:已经杀人如麻！|"</t>
+  </si>
+  <si>
+    <t>跨服3V3 连杀6人</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s.%s|C:0xFF9900&amp;T:已经无人能挡！|"</t>
+  </si>
+  <si>
+    <t>跨服3V3 连杀7人</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s.%s|C:0xFFFF00&amp;T:已经变态杀戮！|"</t>
+  </si>
+  <si>
+    <t>跨服3V3 连杀8人</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s.%s|C:0xFF1493&amp;T:已经妖怪般的杀戮！|"</t>
+  </si>
+  <si>
+    <t>跨服3V3 连杀9人</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s.%s|C:0xff0000&amp;T:已经如同神一般！|"</t>
+  </si>
+  <si>
+    <t>跨服3V3 连杀10人及以上</t>
+  </si>
+  <si>
+    <t>"|C:0x16b2ff&amp;T:%s.%s|C:0xFF9900&amp;T:已经超越神的杀戮！！拜托谁去杀了他吧！|"</t>
+  </si>
+  <si>
+    <t>跨服3V3 开启预告</t>
+  </si>
+  <si>
+    <t>"跨服竞技场活动将于%d分钟后开启，请各位玩家做好准备"</t>
+  </si>
+  <si>
+    <t>跨服3V3 开启</t>
+  </si>
+  <si>
+    <t>"跨服竞技场活动已经开启，请大家前往参加"</t>
+  </si>
+  <si>
+    <t>元宝回收</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"|C:0x16b2ff&amp;T:%s|战灵等阶达到了|C:0xFF0000&amp;T:</t>
+      <t>"恭喜</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>3阶10级</t>
+      <t>|C:0x13aaf2&amp;T:%s|</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>|，领取了|C:0x00ff00&amp;T:战灵竞技奖励|，傲视群雄！"</t>
-    </r>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s[s%d]|自信地进入了|C:0x00ff00&amp;T:跨服苍月岛神殿|，祝他好运吧！"</t>
-  </si>
-  <si>
-    <t>小年翅膀转盘</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在幸运转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:龙翔九天|"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在幸运转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:至尊3阶神羽|"</t>
-  </si>
-  <si>
-    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在谁与争锋-限时寻宝中获得了|C:0xff00ff&amp;T:%s|"</t>
-  </si>
-  <si>
-    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在谁与争锋-限时寻宝中获得了|C:0xFF9900&amp;T:%s|"</t>
-  </si>
-  <si>
-    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在谁与争锋-限时寻宝中获得了|C:0xff0000&amp;T:%s|"</t>
-  </si>
-  <si>
-    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在谁与争锋-限时寻宝中获得了|C:0xFFFF00&amp;T:%s|"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|领取了谁与争锋活动内的|C:0xFF0000&amp;T:材料礼包|，战力飙升！"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|领取了谁与争锋活动内的|C:0xFF0000&amp;T:传世礼包|，战力飙升！"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|领取了谁与争锋活动内的|C:0xFF0000&amp;T:战神礼包|，战力飙升！"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|领取了谁与争锋活动内的|C:0xFF0000&amp;T:热血礼包|，战力飙升！"</t>
-  </si>
-  <si>
-    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在限时寻宝中获得了|C:0xff0000&amp;T:%s|"</t>
-  </si>
-  <si>
-    <t>"人品爆发！|C:0x16b2ff&amp;T:%s|在限时寻宝中获得了|C:0xFFFF00&amp;T:%s|"</t>
-  </si>
-  <si>
-    <t>暗之秘境隐藏BOSS</t>
-  </si>
-  <si>
-    <t>"恭喜|C:0x16b2ff&amp;T:%s|运气逆天，在|C:0xff00ff&amp;T:暗之秘境|遇到|C:0xff0000&amp;T:隐藏BOSS|，极品装备唾手可得！"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|领取了开门红活动内的|C:0xFF0000&amp;T:材料礼包|，战力飙升！"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|领取了开门红活动内的|C:0xFF0000&amp;T:兽神礼包|，战力飙升！"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|领取了开门红活动内的|C:0xFF0000&amp;T:至尊兽神|，战力飙升！"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|领取了开门红活动内的|C:0xFF0000&amp;T:热血礼包|，战力飙升！"</t>
-  </si>
-  <si>
-    <t>轮回宝箱（11转）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"|C:0x16b2ff&amp;T:%s|在开启福袋时鸿运当头，获得了|C:0xf3311e&amp;T:1</t>
+      <t>回收了</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>|C:0xee4040&amp;T:%d|</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>转宝箱|"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"|C:0x16b2ff&amp;T:%s|在开启福袋时鸿运当头，获得了|C:0xf3311e&amp;T:</t>
+      <t>元宝</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>10</t>
+      <t>!"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转宝箱|"</t>
-    </r>
-  </si>
-  <si>
-    <t>魔界入侵BOSS刷新</t>
-  </si>
-  <si>
-    <t>"BOSS|C:0xff0000&amp;T:%s|出现在|C:0xff00ff&amp;T:魔界入侵|！"</t>
-  </si>
-  <si>
-    <t>"|C:0x00ff00&amp;T:%s[s%d]|行会在|C:0xff00ff&amp;T:魔界入侵|击杀|C:0xff0000&amp;T:%s|，获得行会拍卖品|C:0xff0000&amp;T:%s|"</t>
-  </si>
-  <si>
-    <t>龙抬头转盘</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在幸运转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:加持之印|"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在幸运转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:迅疾之印|"</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:%s|C:0xd1c28f&amp;T:在幸运转盘中鸿运当头，获得了|C:0xFFFF00&amp;T:爆裂之印|"</t>
-  </si>
-  <si>
-    <t>跨服竞技场世界邀请</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"[|C:0x16B2FF&amp;T:%s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|]创建了跨服竞技场战队，急需强力队友一起开黑！|E:2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,&amp;U:&amp;C:0x00FF00&amp;T:快速加入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>跨服3V3 首采</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:s%d.%s|C:0xd242fb&amp;T:一马当先，勇夺第一本|C:0xFFFF00&amp;T:天书|C:0xd242fb&amp;T:！|"</t>
-  </si>
-  <si>
-    <t>跨服3V3 首杀</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:s%d.%s|C:0xd242fb&amp;T:手起刀落，击杀|C:0x16b2ff&amp;T:s%d.%s|C:0xd242fb&amp;T:，夺得第一滴血！|"</t>
-  </si>
-  <si>
-    <t>跨服3V3 连杀3人</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:s%d.%s|C:0x00ff00&amp;T:正在大杀特杀！|"</t>
-  </si>
-  <si>
-    <t>跨服3V3 连杀4人</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:s%d.%s|C:0xd242fb&amp;T:已经主宰比赛！|"</t>
-  </si>
-  <si>
-    <t>跨服3V3 连杀5人</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:s%d.%s|C:0xFF00FF&amp;T:已经杀人如麻！|"</t>
-  </si>
-  <si>
-    <t>跨服3V3 连杀6人</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:s%d.%s|C:0xFF9900&amp;T:已经无人能挡！|"</t>
-  </si>
-  <si>
-    <t>跨服3V3 连杀7人</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:s%d.%s|C:0xFFFF00&amp;T:已经变态杀戮！|"</t>
-  </si>
-  <si>
-    <t>跨服3V3 连杀8人</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:s%d.%s|C:0xFF1493&amp;T:已经妖怪般的杀戮！|"</t>
-  </si>
-  <si>
-    <t>跨服3V3 连杀9人</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:s%d.%s|C:0xff0000&amp;T:已经如同神一般！|"</t>
-  </si>
-  <si>
-    <t>跨服3V3 连杀10人及以上</t>
-  </si>
-  <si>
-    <t>"|C:0x16b2ff&amp;T:s%d.%s|C:0xFF9900&amp;T:已经超越神的杀戮！！拜托谁去杀了他吧！|"</t>
   </si>
   <si>
     <t>滚动公告</t>
   </si>
   <si>
     <t>系统公告</t>
-  </si>
-  <si>
-    <r>
-      <t>"跨服竞技场活动将于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分钟后开启，请各位玩家做好准备"</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨服3V3 开启预告</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨服3V3 开启</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"跨服竞技场活动已经开启，请大家前往参加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1687,12 +1561,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1730,70 +1598,180 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1808,13 +1786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7993408001953185"/>
+        <fgColor theme="3" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,12 +1810,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1980,23 +2138,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2040,401 +2440,93 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="52" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="52" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="52" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="52" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 3" xfId="4"/>
-    <cellStyle name="我的公式" xfId="2"/>
     <cellStyle name="样式 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="我的公式" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
+    <cellStyle name="输出" xfId="26" builtinId="21"/>
+    <cellStyle name="计算" xfId="27" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
+    <cellStyle name="汇总" xfId="32" builtinId="25"/>
+    <cellStyle name="好" xfId="33" builtinId="26"/>
+    <cellStyle name="适中" xfId="34" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="51"/>
+    <cellStyle name="常规 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2446,15 +2538,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFF00"/>
+      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2741,16 +2830,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T386"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
-      <selection activeCell="H392" sqref="H392"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2803,7 +2892,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
@@ -2817,7 +2906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:4">
       <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
@@ -2831,7 +2920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
@@ -2845,7 +2934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="2:4">
       <c r="B8">
         <v>1</v>
       </c>
@@ -2856,7 +2945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="2:4">
       <c r="B9">
         <v>2</v>
       </c>
@@ -2867,7 +2956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="2:4">
       <c r="B10">
         <v>3</v>
       </c>
@@ -2878,7 +2967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>4</v>
       </c>
@@ -2889,7 +2978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="2:4">
       <c r="B12">
         <v>5</v>
       </c>
@@ -2900,7 +2989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="2:4">
       <c r="B13">
         <v>6</v>
       </c>
@@ -2911,7 +3000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="2:4">
       <c r="B14">
         <v>7</v>
       </c>
@@ -2922,7 +3011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="2:4">
       <c r="B15">
         <v>8</v>
       </c>
@@ -2933,7 +3022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="2:4">
       <c r="B16">
         <v>9</v>
       </c>
@@ -2944,7 +3033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>10</v>
       </c>
@@ -2955,7 +3044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>11</v>
       </c>
@@ -2966,7 +3055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:4">
       <c r="B19">
         <v>12</v>
       </c>
@@ -2977,7 +3066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:4">
       <c r="B20">
         <v>13</v>
       </c>
@@ -2988,7 +3077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:4">
       <c r="B21">
         <v>14</v>
       </c>
@@ -2999,7 +3088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:4">
       <c r="B22">
         <v>15</v>
       </c>
@@ -3020,9 +3109,9 @@
       <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="2:14">
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24">
         <v>17</v>
       </c>
@@ -3033,7 +3122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:4">
       <c r="B25">
         <v>18</v>
       </c>
@@ -3044,7 +3133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:4">
       <c r="B26">
         <v>19</v>
       </c>
@@ -3055,7 +3144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:4">
       <c r="B27">
         <v>20</v>
       </c>
@@ -3066,7 +3155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:4">
       <c r="B28">
         <v>21</v>
       </c>
@@ -3077,7 +3166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:4">
       <c r="B29">
         <v>22</v>
       </c>
@@ -3088,7 +3177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:4">
       <c r="B30">
         <v>23</v>
       </c>
@@ -3099,7 +3188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:4">
       <c r="B31">
         <v>24</v>
       </c>
@@ -3110,7 +3199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:4">
       <c r="B32">
         <v>25</v>
       </c>
@@ -3216,7 +3305,7 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3260,7 +3349,7 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3271,7 +3360,7 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3282,7 +3371,7 @@
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3293,7 +3382,7 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3304,7 +3393,7 @@
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3315,7 +3404,7 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3326,7 +3415,7 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3337,7 +3426,7 @@
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3348,7 +3437,7 @@
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3359,7 +3448,7 @@
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3370,7 +3459,7 @@
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3381,7 +3470,7 @@
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3403,7 +3492,7 @@
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3436,29 +3525,29 @@
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="12" customHeight="1">
+    <row r="62" ht="12" customHeight="1" spans="2:4">
       <c r="B62">
         <v>55</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="12" customHeight="1">
+    <row r="63" ht="12" customHeight="1" spans="2:4">
       <c r="B63">
         <v>56</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3469,99 +3558,99 @@
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="2:20">
+    <row r="65" spans="2:4">
       <c r="B65">
         <v>58</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="2:20">
+    <row r="66" spans="2:4">
       <c r="B66">
         <v>59</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="2:20">
+    <row r="67" spans="2:4">
       <c r="B67">
         <v>60</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="2:20">
+    <row r="68" spans="2:4">
       <c r="B68">
         <v>61</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="2:20">
+    <row r="69" spans="2:4">
       <c r="B69">
         <v>62</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="2:20">
+    <row r="70" spans="2:4">
       <c r="B70">
         <v>63</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="2:20">
+    <row r="71" spans="2:4">
       <c r="B71">
         <v>64</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="2:20">
+    <row r="72" spans="2:4">
       <c r="B72">
         <v>65</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="2:20">
+    <row r="73" spans="2:4">
       <c r="B73">
         <v>66</v>
       </c>
@@ -3572,7 +3661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:20">
+    <row r="74" spans="2:4">
       <c r="B74">
         <v>67</v>
       </c>
@@ -3583,7 +3672,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="2:20">
+    <row r="75" spans="2:4">
       <c r="B75">
         <v>68</v>
       </c>
@@ -3594,7 +3683,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="2:20">
+    <row r="76" spans="2:4">
       <c r="B76">
         <v>69</v>
       </c>
@@ -3605,7 +3694,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="2:20">
+    <row r="77" spans="2:4">
       <c r="B77">
         <v>70</v>
       </c>
@@ -3616,7 +3705,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="2:20">
+    <row r="78" spans="2:4">
       <c r="B78">
         <v>71</v>
       </c>
@@ -3637,7 +3726,7 @@
       <c r="D79" t="s">
         <v>90</v>
       </c>
-      <c r="T79" s="26"/>
+      <c r="T79" s="24"/>
     </row>
     <row r="80" spans="2:20">
       <c r="B80">
@@ -3649,7 +3738,7 @@
       <c r="D80" t="s">
         <v>91</v>
       </c>
-      <c r="T80" s="26"/>
+      <c r="T80" s="24"/>
     </row>
     <row r="81" spans="2:20">
       <c r="B81">
@@ -3661,7 +3750,7 @@
       <c r="D81" t="s">
         <v>92</v>
       </c>
-      <c r="T81" s="26"/>
+      <c r="T81" s="24"/>
     </row>
     <row r="82" spans="2:20">
       <c r="B82">
@@ -3673,7 +3762,7 @@
       <c r="D82" t="s">
         <v>93</v>
       </c>
-      <c r="T82" s="26"/>
+      <c r="T82" s="24"/>
     </row>
     <row r="83" spans="2:20">
       <c r="B83">
@@ -3685,7 +3774,7 @@
       <c r="D83" t="s">
         <v>94</v>
       </c>
-      <c r="T83" s="26"/>
+      <c r="T83" s="24"/>
     </row>
     <row r="84" spans="2:20">
       <c r="B84">
@@ -3697,43 +3786,43 @@
       <c r="D84" t="s">
         <v>95</v>
       </c>
-      <c r="T84" s="26"/>
-    </row>
-    <row r="85" spans="2:20" s="8" customFormat="1">
+      <c r="T84" s="24"/>
+    </row>
+    <row r="85" s="8" customFormat="1" spans="2:20">
       <c r="B85" s="8">
         <v>78</v>
       </c>
       <c r="C85" s="8">
         <v>1</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" t="s">
         <v>96</v>
       </c>
-      <c r="T85" s="26"/>
-    </row>
-    <row r="86" spans="2:20" s="8" customFormat="1">
+      <c r="T85" s="24"/>
+    </row>
+    <row r="86" s="8" customFormat="1" spans="2:20">
       <c r="B86" s="8">
         <v>79</v>
       </c>
       <c r="C86" s="8">
         <v>1</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" t="s">
         <v>97</v>
       </c>
-      <c r="T86" s="26"/>
-    </row>
-    <row r="87" spans="2:20" s="8" customFormat="1">
+      <c r="T86" s="24"/>
+    </row>
+    <row r="87" s="8" customFormat="1" spans="2:20">
       <c r="B87" s="8">
         <v>80</v>
       </c>
       <c r="C87" s="8">
         <v>1</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" t="s">
         <v>98</v>
       </c>
-      <c r="T87" s="26"/>
+      <c r="T87" s="24"/>
     </row>
     <row r="88" spans="2:20">
       <c r="B88" s="8">
@@ -3742,10 +3831,10 @@
       <c r="C88" s="8">
         <v>1</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" t="s">
         <v>99</v>
       </c>
-      <c r="T88" s="26"/>
+      <c r="T88" s="24"/>
     </row>
     <row r="89" spans="2:20">
       <c r="B89" s="8">
@@ -3754,10 +3843,10 @@
       <c r="C89" s="8">
         <v>1</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" t="s">
         <v>100</v>
       </c>
-      <c r="T89" s="26"/>
+      <c r="T89" s="24"/>
     </row>
     <row r="90" spans="2:20">
       <c r="B90" s="8">
@@ -3766,10 +3855,10 @@
       <c r="C90" s="8">
         <v>1</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" t="s">
         <v>101</v>
       </c>
-      <c r="T90" s="26"/>
+      <c r="T90" s="24"/>
     </row>
     <row r="91" spans="2:20">
       <c r="B91" s="8">
@@ -3778,10 +3867,10 @@
       <c r="C91" s="8">
         <v>1</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" t="s">
         <v>102</v>
       </c>
-      <c r="T91" s="26"/>
+      <c r="T91" s="24"/>
     </row>
     <row r="92" spans="2:20">
       <c r="B92" s="8">
@@ -3790,10 +3879,10 @@
       <c r="C92" s="8">
         <v>1</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" t="s">
         <v>103</v>
       </c>
-      <c r="T92" s="26"/>
+      <c r="T92" s="24"/>
     </row>
     <row r="93" spans="2:20">
       <c r="B93" s="8">
@@ -3802,10 +3891,10 @@
       <c r="C93" s="8">
         <v>1</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" t="s">
         <v>104</v>
       </c>
-      <c r="T93" s="26"/>
+      <c r="T93" s="24"/>
     </row>
     <row r="94" spans="2:20">
       <c r="B94" s="8">
@@ -3814,10 +3903,10 @@
       <c r="C94" s="8">
         <v>1</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" t="s">
         <v>105</v>
       </c>
-      <c r="T94" s="26"/>
+      <c r="T94" s="24"/>
     </row>
     <row r="95" spans="2:20">
       <c r="B95" s="8">
@@ -3826,10 +3915,10 @@
       <c r="C95" s="8">
         <v>1</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" t="s">
         <v>106</v>
       </c>
-      <c r="T95" s="26"/>
+      <c r="T95" s="24"/>
     </row>
     <row r="96" spans="2:20">
       <c r="B96" s="8">
@@ -3838,10 +3927,10 @@
       <c r="C96" s="8">
         <v>1</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" t="s">
         <v>107</v>
       </c>
-      <c r="T96" s="26"/>
+      <c r="T96" s="24"/>
     </row>
     <row r="97" spans="2:20">
       <c r="B97" s="8">
@@ -3850,10 +3939,10 @@
       <c r="C97" s="8">
         <v>1</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" t="s">
         <v>108</v>
       </c>
-      <c r="T97" s="26"/>
+      <c r="T97" s="24"/>
     </row>
     <row r="98" spans="2:20">
       <c r="B98" s="8">
@@ -3862,10 +3951,10 @@
       <c r="C98" s="8">
         <v>1</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" t="s">
         <v>109</v>
       </c>
-      <c r="T98" s="26"/>
+      <c r="T98" s="24"/>
     </row>
     <row r="99" spans="2:20">
       <c r="B99" s="8">
@@ -3874,10 +3963,10 @@
       <c r="C99" s="8">
         <v>1</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" t="s">
         <v>110</v>
       </c>
-      <c r="T99" s="26"/>
+      <c r="T99" s="24"/>
     </row>
     <row r="100" spans="2:20">
       <c r="B100" s="8">
@@ -3886,10 +3975,10 @@
       <c r="C100" s="8">
         <v>1</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" t="s">
         <v>111</v>
       </c>
-      <c r="T100" s="26"/>
+      <c r="T100" s="24"/>
     </row>
     <row r="101" spans="2:20">
       <c r="B101" s="8">
@@ -3898,10 +3987,10 @@
       <c r="C101" s="8">
         <v>1</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" t="s">
         <v>112</v>
       </c>
-      <c r="T101" s="26"/>
+      <c r="T101" s="24"/>
     </row>
     <row r="102" spans="2:20">
       <c r="B102" s="8">
@@ -3910,10 +3999,10 @@
       <c r="C102" s="8">
         <v>1</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" t="s">
         <v>113</v>
       </c>
-      <c r="T102" s="26"/>
+      <c r="T102" s="24"/>
     </row>
     <row r="103" spans="2:20">
       <c r="B103" s="8">
@@ -3922,10 +4011,10 @@
       <c r="C103" s="8">
         <v>1</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" t="s">
         <v>114</v>
       </c>
-      <c r="T103" s="26"/>
+      <c r="T103" s="24"/>
     </row>
     <row r="104" spans="2:20">
       <c r="B104" s="8">
@@ -3934,10 +4023,10 @@
       <c r="C104" s="8">
         <v>1</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" t="s">
         <v>115</v>
       </c>
-      <c r="T104" s="26"/>
+      <c r="T104" s="24"/>
     </row>
     <row r="105" spans="2:20">
       <c r="B105" s="8">
@@ -3946,10 +4035,10 @@
       <c r="C105" s="8">
         <v>1</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" t="s">
         <v>116</v>
       </c>
-      <c r="T105" s="26"/>
+      <c r="T105" s="24"/>
     </row>
     <row r="106" spans="2:20">
       <c r="B106" s="8">
@@ -3958,10 +4047,10 @@
       <c r="C106" s="8">
         <v>1</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" t="s">
         <v>117</v>
       </c>
-      <c r="T106" s="26"/>
+      <c r="T106" s="24"/>
     </row>
     <row r="107" spans="2:20">
       <c r="B107" s="8">
@@ -3970,10 +4059,10 @@
       <c r="C107" s="8">
         <v>1</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" t="s">
         <v>118</v>
       </c>
-      <c r="T107" s="26"/>
+      <c r="T107" s="24"/>
     </row>
     <row r="108" spans="2:20">
       <c r="B108" s="8">
@@ -3982,10 +4071,10 @@
       <c r="C108" s="8">
         <v>1</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" t="s">
         <v>119</v>
       </c>
-      <c r="T108" s="26"/>
+      <c r="T108" s="24"/>
     </row>
     <row r="109" spans="2:20">
       <c r="B109" s="8">
@@ -3994,41 +4083,41 @@
       <c r="C109" s="8">
         <v>1</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" t="s">
         <v>120</v>
       </c>
-      <c r="T109" s="26"/>
-    </row>
-    <row r="110" spans="2:20">
+      <c r="T109" s="24"/>
+    </row>
+    <row r="110" spans="2:4">
       <c r="B110" s="8">
         <v>103</v>
       </c>
       <c r="C110" s="8">
         <v>1</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="2:20">
+    <row r="111" spans="2:4">
       <c r="B111" s="8">
         <v>104</v>
       </c>
       <c r="C111" s="8">
         <v>1</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="2:20">
+    <row r="112" spans="2:4">
       <c r="B112" s="8">
         <v>105</v>
       </c>
       <c r="C112" s="8">
         <v>1</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4039,7 +4128,7 @@
       <c r="C113" s="8">
         <v>1</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4050,7 +4139,7 @@
       <c r="C114" s="8">
         <v>1</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4061,7 +4150,7 @@
       <c r="C115" s="8">
         <v>1</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4072,7 +4161,7 @@
       <c r="C116" s="8">
         <v>1</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4083,7 +4172,7 @@
       <c r="C117" s="8">
         <v>1</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4094,7 +4183,7 @@
       <c r="C118" s="8">
         <v>1</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4105,7 +4194,7 @@
       <c r="C119" s="8">
         <v>1</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4116,7 +4205,7 @@
       <c r="C120" s="8">
         <v>1</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4127,7 +4216,7 @@
       <c r="C121" s="8">
         <v>1</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4138,7 +4227,7 @@
       <c r="C122" s="8">
         <v>1</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4149,7 +4238,7 @@
       <c r="C123" s="8">
         <v>1</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4160,7 +4249,7 @@
       <c r="C124" s="8">
         <v>1</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4171,7 +4260,7 @@
       <c r="C125" s="8">
         <v>1</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4182,7 +4271,7 @@
       <c r="C126" s="8">
         <v>1</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4193,7 +4282,7 @@
       <c r="C127" s="8">
         <v>1</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4204,7 +4293,7 @@
       <c r="C128" s="8">
         <v>1</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4215,7 +4304,7 @@
       <c r="C129" s="8">
         <v>1</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4226,7 +4315,7 @@
       <c r="C130" s="8">
         <v>1</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4237,7 +4326,7 @@
       <c r="C131" s="8">
         <v>1</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4248,7 +4337,7 @@
       <c r="C132" s="8">
         <v>1</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4259,7 +4348,7 @@
       <c r="C133" s="8">
         <v>1</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4281,7 +4370,7 @@
       <c r="C135">
         <v>1</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4292,7 +4381,7 @@
       <c r="C136">
         <v>1</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4303,7 +4392,7 @@
       <c r="C137">
         <v>1</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4314,7 +4403,7 @@
       <c r="C138">
         <v>1</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D138" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4358,7 +4447,7 @@
       <c r="C142">
         <v>1</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4369,7 +4458,7 @@
       <c r="C143">
         <v>1</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4384,7 +4473,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="2:4">
       <c r="B145">
         <v>138</v>
       </c>
@@ -4395,7 +4484,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="2:4">
       <c r="B146">
         <v>139</v>
       </c>
@@ -4406,7 +4495,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="2:4">
       <c r="B147">
         <v>140</v>
       </c>
@@ -4417,7 +4506,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="2:4">
       <c r="B148">
         <v>141</v>
       </c>
@@ -4428,7 +4517,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="2:4">
       <c r="B149">
         <v>142</v>
       </c>
@@ -4439,7 +4528,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="2:4">
       <c r="B150">
         <v>143</v>
       </c>
@@ -4450,7 +4539,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="2:4">
       <c r="B151">
         <v>144</v>
       </c>
@@ -4461,7 +4550,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="2:4">
       <c r="B152">
         <v>145</v>
       </c>
@@ -4472,7 +4561,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="2:4">
       <c r="B153">
         <v>146</v>
       </c>
@@ -4483,7 +4572,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="2:4">
       <c r="B154">
         <v>147</v>
       </c>
@@ -4494,7 +4583,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="2:4">
       <c r="B155">
         <v>148</v>
       </c>
@@ -4505,7 +4594,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="2:4">
       <c r="B156">
         <v>149</v>
       </c>
@@ -4516,7 +4605,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="2:4">
       <c r="B157">
         <v>150</v>
       </c>
@@ -4527,7 +4616,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="2:4">
       <c r="B158">
         <v>151</v>
       </c>
@@ -4538,7 +4627,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="2:4">
       <c r="B159">
         <v>152</v>
       </c>
@@ -4563,7 +4652,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -4577,7 +4666,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -4591,7 +4680,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -4605,7 +4694,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>179</v>
       </c>
@@ -4619,7 +4708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -4633,7 +4722,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>183</v>
       </c>
@@ -4647,7 +4736,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>185</v>
       </c>
@@ -4661,7 +4750,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>187</v>
       </c>
@@ -4675,7 +4764,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -4689,7 +4778,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>191</v>
       </c>
@@ -4703,8 +4792,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
-      <c r="A171" s="23" t="s">
+    <row r="171" spans="1:4">
+      <c r="A171" s="25" t="s">
         <v>193</v>
       </c>
       <c r="B171">
@@ -4713,361 +4802,361 @@
       <c r="C171">
         <v>1</v>
       </c>
-      <c r="D171" s="23" t="s">
+      <c r="D171" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:20">
-      <c r="A172" s="27"/>
-      <c r="B172" s="27">
+      <c r="A172" s="26"/>
+      <c r="B172" s="26">
         <v>165</v>
       </c>
-      <c r="C172" s="27">
-        <v>1</v>
-      </c>
-      <c r="D172" s="27" t="s">
+      <c r="C172" s="26">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
         <v>195</v>
       </c>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="27"/>
-      <c r="K172" s="27"/>
-      <c r="L172" s="27"/>
-      <c r="M172" s="27"/>
-      <c r="N172" s="27"/>
-      <c r="O172" s="27"/>
-      <c r="P172" s="27"/>
-      <c r="Q172" s="27"/>
-      <c r="R172" s="27"/>
-      <c r="S172" s="27"/>
-      <c r="T172" s="27"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="26"/>
+      <c r="I172" s="26"/>
+      <c r="J172" s="26"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="26"/>
+      <c r="M172" s="26"/>
+      <c r="N172" s="26"/>
+      <c r="O172" s="26"/>
+      <c r="P172" s="26"/>
+      <c r="Q172" s="26"/>
+      <c r="R172" s="26"/>
+      <c r="S172" s="26"/>
+      <c r="T172" s="26"/>
     </row>
     <row r="173" spans="1:20">
-      <c r="A173" s="27"/>
-      <c r="B173" s="27">
+      <c r="A173" s="26"/>
+      <c r="B173" s="26">
         <v>166</v>
       </c>
-      <c r="C173" s="27">
-        <v>1</v>
-      </c>
-      <c r="D173" s="27" t="s">
+      <c r="C173" s="26">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
         <v>196</v>
       </c>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="27"/>
-      <c r="K173" s="27"/>
-      <c r="L173" s="27"/>
-      <c r="M173" s="27"/>
-      <c r="N173" s="27"/>
-      <c r="O173" s="27"/>
-      <c r="P173" s="27"/>
-      <c r="Q173" s="27"/>
-      <c r="R173" s="27"/>
-      <c r="S173" s="27"/>
-      <c r="T173" s="27"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="26"/>
+      <c r="I173" s="26"/>
+      <c r="J173" s="26"/>
+      <c r="K173" s="26"/>
+      <c r="L173" s="26"/>
+      <c r="M173" s="26"/>
+      <c r="N173" s="26"/>
+      <c r="O173" s="26"/>
+      <c r="P173" s="26"/>
+      <c r="Q173" s="26"/>
+      <c r="R173" s="26"/>
+      <c r="S173" s="26"/>
+      <c r="T173" s="26"/>
     </row>
     <row r="174" spans="1:20">
-      <c r="A174" s="27"/>
-      <c r="B174" s="27">
+      <c r="A174" s="26"/>
+      <c r="B174" s="26">
         <v>167</v>
       </c>
-      <c r="C174" s="27">
+      <c r="C174" s="26">
         <v>2</v>
       </c>
-      <c r="D174" s="27" t="s">
+      <c r="D174" t="s">
         <v>197</v>
       </c>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="27"/>
-      <c r="K174" s="27"/>
-      <c r="L174" s="27"/>
-      <c r="M174" s="27"/>
-      <c r="N174" s="27"/>
-      <c r="O174" s="27"/>
-      <c r="P174" s="27"/>
-      <c r="Q174" s="27"/>
-      <c r="R174" s="27"/>
-      <c r="S174" s="27"/>
-      <c r="T174" s="27"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="26"/>
+      <c r="I174" s="26"/>
+      <c r="J174" s="26"/>
+      <c r="K174" s="26"/>
+      <c r="L174" s="26"/>
+      <c r="M174" s="26"/>
+      <c r="N174" s="26"/>
+      <c r="O174" s="26"/>
+      <c r="P174" s="26"/>
+      <c r="Q174" s="26"/>
+      <c r="R174" s="26"/>
+      <c r="S174" s="26"/>
+      <c r="T174" s="26"/>
     </row>
     <row r="175" spans="1:20">
-      <c r="A175" s="27"/>
-      <c r="B175" s="27">
+      <c r="A175" s="26"/>
+      <c r="B175" s="26">
         <v>168</v>
       </c>
-      <c r="C175" s="27">
+      <c r="C175" s="26">
         <v>2</v>
       </c>
-      <c r="D175" s="27" t="s">
+      <c r="D175" t="s">
         <v>198</v>
       </c>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="27"/>
-      <c r="K175" s="27"/>
-      <c r="L175" s="27"/>
-      <c r="M175" s="27"/>
-      <c r="N175" s="27"/>
-      <c r="O175" s="27"/>
-      <c r="P175" s="27"/>
-      <c r="Q175" s="27"/>
-      <c r="R175" s="27"/>
-      <c r="S175" s="27"/>
-      <c r="T175" s="27"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="26"/>
+      <c r="J175" s="26"/>
+      <c r="K175" s="26"/>
+      <c r="L175" s="26"/>
+      <c r="M175" s="26"/>
+      <c r="N175" s="26"/>
+      <c r="O175" s="26"/>
+      <c r="P175" s="26"/>
+      <c r="Q175" s="26"/>
+      <c r="R175" s="26"/>
+      <c r="S175" s="26"/>
+      <c r="T175" s="26"/>
     </row>
     <row r="176" spans="1:20">
-      <c r="A176" s="27"/>
-      <c r="B176" s="27">
+      <c r="A176" s="26"/>
+      <c r="B176" s="26">
         <v>169</v>
       </c>
-      <c r="C176" s="27">
+      <c r="C176" s="26">
         <v>2</v>
       </c>
-      <c r="D176" s="27" t="s">
+      <c r="D176" t="s">
         <v>199</v>
       </c>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="27"/>
-      <c r="K176" s="27"/>
-      <c r="L176" s="27"/>
-      <c r="M176" s="27"/>
-      <c r="N176" s="27"/>
-      <c r="O176" s="27"/>
-      <c r="P176" s="27"/>
-      <c r="Q176" s="27"/>
-      <c r="R176" s="27"/>
-      <c r="S176" s="27"/>
-      <c r="T176" s="27"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="26"/>
+      <c r="J176" s="26"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="26"/>
+      <c r="M176" s="26"/>
+      <c r="N176" s="26"/>
+      <c r="O176" s="26"/>
+      <c r="P176" s="26"/>
+      <c r="Q176" s="26"/>
+      <c r="R176" s="26"/>
+      <c r="S176" s="26"/>
+      <c r="T176" s="26"/>
     </row>
     <row r="177" spans="1:20">
-      <c r="A177" s="27"/>
-      <c r="B177" s="27">
+      <c r="A177" s="26"/>
+      <c r="B177" s="26">
         <v>170</v>
       </c>
-      <c r="C177" s="27">
+      <c r="C177" s="26">
         <v>2</v>
       </c>
-      <c r="D177" s="27" t="s">
+      <c r="D177" t="s">
         <v>200</v>
       </c>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="27"/>
-      <c r="L177" s="27"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
-      <c r="P177" s="27"/>
-      <c r="Q177" s="27"/>
-      <c r="R177" s="27"/>
-      <c r="S177" s="27"/>
-      <c r="T177" s="27"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="26"/>
+      <c r="M177" s="26"/>
+      <c r="N177" s="26"/>
+      <c r="O177" s="26"/>
+      <c r="P177" s="26"/>
+      <c r="Q177" s="26"/>
+      <c r="R177" s="26"/>
+      <c r="S177" s="26"/>
+      <c r="T177" s="26"/>
     </row>
     <row r="178" spans="1:20">
-      <c r="A178" s="27"/>
-      <c r="B178" s="27">
+      <c r="A178" s="26"/>
+      <c r="B178" s="26">
         <v>171</v>
       </c>
-      <c r="C178" s="27">
+      <c r="C178" s="26">
         <v>2</v>
       </c>
-      <c r="D178" s="27" t="s">
+      <c r="D178" t="s">
         <v>201</v>
       </c>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="27"/>
-      <c r="K178" s="27"/>
-      <c r="L178" s="27"/>
-      <c r="M178" s="27"/>
-      <c r="N178" s="27"/>
-      <c r="O178" s="27"/>
-      <c r="P178" s="27"/>
-      <c r="Q178" s="27"/>
-      <c r="R178" s="27"/>
-      <c r="S178" s="27"/>
-      <c r="T178" s="27"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="26"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="26"/>
+      <c r="M178" s="26"/>
+      <c r="N178" s="26"/>
+      <c r="O178" s="26"/>
+      <c r="P178" s="26"/>
+      <c r="Q178" s="26"/>
+      <c r="R178" s="26"/>
+      <c r="S178" s="26"/>
+      <c r="T178" s="26"/>
     </row>
     <row r="179" spans="1:20">
-      <c r="A179" s="27"/>
-      <c r="B179" s="27">
+      <c r="A179" s="26"/>
+      <c r="B179" s="26">
         <v>172</v>
       </c>
-      <c r="C179" s="27">
+      <c r="C179" s="26">
         <v>2</v>
       </c>
-      <c r="D179" s="27" t="s">
+      <c r="D179" t="s">
         <v>202</v>
       </c>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="27"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="27"/>
-      <c r="M179" s="27"/>
-      <c r="N179" s="27"/>
-      <c r="O179" s="27"/>
-      <c r="P179" s="27"/>
-      <c r="Q179" s="27"/>
-      <c r="R179" s="27"/>
-      <c r="S179" s="27"/>
-      <c r="T179" s="27"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="26"/>
+      <c r="I179" s="26"/>
+      <c r="J179" s="26"/>
+      <c r="K179" s="26"/>
+      <c r="L179" s="26"/>
+      <c r="M179" s="26"/>
+      <c r="N179" s="26"/>
+      <c r="O179" s="26"/>
+      <c r="P179" s="26"/>
+      <c r="Q179" s="26"/>
+      <c r="R179" s="26"/>
+      <c r="S179" s="26"/>
+      <c r="T179" s="26"/>
     </row>
     <row r="180" spans="1:20">
-      <c r="A180" s="27"/>
-      <c r="B180" s="27">
+      <c r="A180" s="26"/>
+      <c r="B180" s="26">
         <v>173</v>
       </c>
-      <c r="C180" s="27">
+      <c r="C180" s="26">
         <v>2</v>
       </c>
-      <c r="D180" s="27" t="s">
+      <c r="D180" t="s">
         <v>203</v>
       </c>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="27"/>
-      <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="27"/>
-      <c r="P180" s="27"/>
-      <c r="Q180" s="27"/>
-      <c r="R180" s="27"/>
-      <c r="S180" s="27"/>
-      <c r="T180" s="27"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="26"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="26"/>
+      <c r="I180" s="26"/>
+      <c r="J180" s="26"/>
+      <c r="K180" s="26"/>
+      <c r="L180" s="26"/>
+      <c r="M180" s="26"/>
+      <c r="N180" s="26"/>
+      <c r="O180" s="26"/>
+      <c r="P180" s="26"/>
+      <c r="Q180" s="26"/>
+      <c r="R180" s="26"/>
+      <c r="S180" s="26"/>
+      <c r="T180" s="26"/>
     </row>
     <row r="181" spans="1:20">
-      <c r="A181" s="27"/>
-      <c r="B181" s="27">
+      <c r="A181" s="26"/>
+      <c r="B181" s="26">
         <v>174</v>
       </c>
-      <c r="C181" s="27">
+      <c r="C181" s="26">
         <v>2</v>
       </c>
-      <c r="D181" s="27" t="s">
+      <c r="D181" t="s">
         <v>204</v>
       </c>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="27"/>
-      <c r="L181" s="27"/>
-      <c r="M181" s="27"/>
-      <c r="N181" s="27"/>
-      <c r="O181" s="27"/>
-      <c r="P181" s="27"/>
-      <c r="Q181" s="27"/>
-      <c r="R181" s="27"/>
-      <c r="S181" s="27"/>
-      <c r="T181" s="27"/>
-    </row>
-    <row r="182" spans="1:20">
+      <c r="E181" s="26"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="26"/>
+      <c r="I181" s="26"/>
+      <c r="J181" s="26"/>
+      <c r="K181" s="26"/>
+      <c r="L181" s="26"/>
+      <c r="M181" s="26"/>
+      <c r="N181" s="26"/>
+      <c r="O181" s="26"/>
+      <c r="P181" s="26"/>
+      <c r="Q181" s="26"/>
+      <c r="R181" s="26"/>
+      <c r="S181" s="26"/>
+      <c r="T181" s="26"/>
+    </row>
+    <row r="182" spans="2:4">
       <c r="B182">
         <v>175</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
-      <c r="D182" s="23" t="s">
+      <c r="D182" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="2:4">
       <c r="B183">
         <v>176</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
-      <c r="D183" s="23" t="s">
+      <c r="D183" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="1:20" s="8" customFormat="1">
+    <row r="184" s="8" customFormat="1" spans="2:20">
       <c r="B184">
         <v>177</v>
       </c>
       <c r="C184" s="8">
         <v>1</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" t="s">
         <v>207</v>
       </c>
-      <c r="T184" s="26"/>
-    </row>
-    <row r="185" spans="1:20" s="8" customFormat="1">
+      <c r="T184" s="24"/>
+    </row>
+    <row r="185" s="8" customFormat="1" spans="2:20">
       <c r="B185">
         <v>178</v>
       </c>
       <c r="C185" s="8">
         <v>1</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="D185" t="s">
         <v>208</v>
       </c>
-      <c r="T185" s="26"/>
-    </row>
-    <row r="186" spans="1:20" s="8" customFormat="1">
+      <c r="T185" s="24"/>
+    </row>
+    <row r="186" s="8" customFormat="1" spans="2:20">
       <c r="B186">
         <v>179</v>
       </c>
       <c r="C186" s="8">
         <v>1</v>
       </c>
-      <c r="D186" s="8" t="s">
+      <c r="D186" t="s">
         <v>209</v>
       </c>
-      <c r="T186" s="26"/>
-    </row>
-    <row r="187" spans="1:20">
+      <c r="T186" s="24"/>
+    </row>
+    <row r="187" spans="2:20">
       <c r="B187">
         <v>180</v>
       </c>
       <c r="C187" s="8">
         <v>1</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187" t="s">
         <v>210</v>
       </c>
-      <c r="T187" s="26"/>
-    </row>
-    <row r="188" spans="1:20">
+      <c r="T187" s="24"/>
+    </row>
+    <row r="188" spans="2:4">
       <c r="B188">
         <v>181</v>
       </c>
@@ -5078,7 +5167,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="2:4">
       <c r="B189">
         <v>182</v>
       </c>
@@ -5089,7 +5178,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="2:4">
       <c r="B190">
         <v>183</v>
       </c>
@@ -5100,7 +5189,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="2:4">
       <c r="B191">
         <v>184</v>
       </c>
@@ -5111,7 +5200,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="2:4">
       <c r="B192">
         <v>185</v>
       </c>
@@ -5122,347 +5211,347 @@
         <v>214</v>
       </c>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="2:4">
       <c r="B193">
         <v>186</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="2:4">
       <c r="B194">
         <v>187</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
-      <c r="D194" s="8" t="s">
+      <c r="D194" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="2:4">
       <c r="B195">
         <v>188</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="2:4">
       <c r="B196">
         <v>189</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
-      <c r="D196" s="8" t="s">
+      <c r="D196" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="2:4">
       <c r="B197" s="8">
         <v>190</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
-      <c r="D197" s="8" t="s">
+      <c r="D197" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="198" spans="1:20">
-      <c r="A198" s="27"/>
-      <c r="B198" s="27">
+      <c r="A198" s="26"/>
+      <c r="B198" s="26">
         <v>191</v>
       </c>
-      <c r="C198" s="27">
-        <v>1</v>
-      </c>
-      <c r="D198" s="28" t="s">
+      <c r="C198" s="26">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
         <v>220</v>
       </c>
-      <c r="E198" s="28"/>
-      <c r="F198" s="28"/>
-      <c r="G198" s="28"/>
-      <c r="H198" s="28"/>
-      <c r="I198" s="28"/>
-      <c r="J198" s="28"/>
-      <c r="K198" s="28"/>
-      <c r="L198" s="28"/>
-      <c r="M198" s="28"/>
-      <c r="N198" s="27"/>
-      <c r="O198" s="27"/>
-      <c r="P198" s="27"/>
-      <c r="Q198" s="27"/>
-      <c r="R198" s="27"/>
-      <c r="S198" s="27"/>
-      <c r="T198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="27"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="27"/>
+      <c r="J198" s="27"/>
+      <c r="K198" s="27"/>
+      <c r="L198" s="27"/>
+      <c r="M198" s="27"/>
+      <c r="N198" s="26"/>
+      <c r="O198" s="26"/>
+      <c r="P198" s="26"/>
+      <c r="Q198" s="26"/>
+      <c r="R198" s="26"/>
+      <c r="S198" s="26"/>
+      <c r="T198" s="26"/>
     </row>
     <row r="199" spans="1:20">
-      <c r="A199" s="27"/>
-      <c r="B199" s="27">
+      <c r="A199" s="26"/>
+      <c r="B199" s="26">
         <v>192</v>
       </c>
-      <c r="C199" s="27">
-        <v>1</v>
-      </c>
-      <c r="D199" s="27" t="s">
+      <c r="C199" s="26">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
         <v>221</v>
       </c>
-      <c r="E199" s="27"/>
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="27"/>
-      <c r="K199" s="27"/>
-      <c r="L199" s="27"/>
-      <c r="M199" s="27"/>
-      <c r="N199" s="27"/>
-      <c r="O199" s="27"/>
-      <c r="P199" s="27"/>
-      <c r="Q199" s="27"/>
-      <c r="R199" s="27"/>
-      <c r="S199" s="27"/>
-      <c r="T199" s="27"/>
+      <c r="E199" s="26"/>
+      <c r="F199" s="26"/>
+      <c r="G199" s="26"/>
+      <c r="H199" s="26"/>
+      <c r="I199" s="26"/>
+      <c r="J199" s="26"/>
+      <c r="K199" s="26"/>
+      <c r="L199" s="26"/>
+      <c r="M199" s="26"/>
+      <c r="N199" s="26"/>
+      <c r="O199" s="26"/>
+      <c r="P199" s="26"/>
+      <c r="Q199" s="26"/>
+      <c r="R199" s="26"/>
+      <c r="S199" s="26"/>
+      <c r="T199" s="26"/>
     </row>
     <row r="200" spans="1:20">
-      <c r="A200" s="27"/>
-      <c r="B200" s="27">
+      <c r="A200" s="26"/>
+      <c r="B200" s="26">
         <v>193</v>
       </c>
-      <c r="C200" s="27">
-        <v>1</v>
-      </c>
-      <c r="D200" s="28" t="s">
+      <c r="C200" s="26">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
         <v>222</v>
       </c>
-      <c r="E200" s="28"/>
-      <c r="F200" s="28"/>
-      <c r="G200" s="28"/>
-      <c r="H200" s="28"/>
-      <c r="I200" s="28"/>
-      <c r="J200" s="28"/>
-      <c r="K200" s="28"/>
-      <c r="L200" s="28"/>
-      <c r="M200" s="27"/>
-      <c r="N200" s="27"/>
-      <c r="O200" s="27"/>
-      <c r="P200" s="27"/>
-      <c r="Q200" s="27"/>
-      <c r="R200" s="27"/>
-      <c r="S200" s="27"/>
-      <c r="T200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="27"/>
+      <c r="H200" s="27"/>
+      <c r="I200" s="27"/>
+      <c r="J200" s="27"/>
+      <c r="K200" s="27"/>
+      <c r="L200" s="27"/>
+      <c r="M200" s="26"/>
+      <c r="N200" s="26"/>
+      <c r="O200" s="26"/>
+      <c r="P200" s="26"/>
+      <c r="Q200" s="26"/>
+      <c r="R200" s="26"/>
+      <c r="S200" s="26"/>
+      <c r="T200" s="26"/>
     </row>
     <row r="201" spans="1:20">
-      <c r="A201" s="27"/>
-      <c r="B201" s="27">
+      <c r="A201" s="26"/>
+      <c r="B201" s="26">
         <v>194</v>
       </c>
-      <c r="C201" s="27">
-        <v>1</v>
-      </c>
-      <c r="D201" s="28" t="s">
+      <c r="C201" s="26">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
         <v>223</v>
       </c>
-      <c r="E201" s="28"/>
-      <c r="F201" s="28"/>
-      <c r="G201" s="28"/>
-      <c r="H201" s="28"/>
-      <c r="I201" s="28"/>
-      <c r="J201" s="28"/>
-      <c r="K201" s="28"/>
-      <c r="L201" s="28"/>
-      <c r="M201" s="27"/>
-      <c r="N201" s="27"/>
-      <c r="O201" s="27"/>
-      <c r="P201" s="27"/>
-      <c r="Q201" s="27"/>
-      <c r="R201" s="27"/>
-      <c r="S201" s="27"/>
-      <c r="T201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="27"/>
+      <c r="K201" s="27"/>
+      <c r="L201" s="27"/>
+      <c r="M201" s="26"/>
+      <c r="N201" s="26"/>
+      <c r="O201" s="26"/>
+      <c r="P201" s="26"/>
+      <c r="Q201" s="26"/>
+      <c r="R201" s="26"/>
+      <c r="S201" s="26"/>
+      <c r="T201" s="26"/>
     </row>
     <row r="202" spans="1:20">
-      <c r="A202" s="27"/>
-      <c r="B202" s="27">
+      <c r="A202" s="26"/>
+      <c r="B202" s="26">
         <v>195</v>
       </c>
-      <c r="C202" s="27">
-        <v>1</v>
-      </c>
-      <c r="D202" s="28" t="s">
+      <c r="C202" s="26">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
         <v>224</v>
       </c>
-      <c r="E202" s="28"/>
-      <c r="F202" s="28"/>
-      <c r="G202" s="28"/>
-      <c r="H202" s="28"/>
-      <c r="I202" s="28"/>
-      <c r="J202" s="28"/>
-      <c r="K202" s="28"/>
-      <c r="L202" s="28"/>
-      <c r="M202" s="27"/>
-      <c r="N202" s="27"/>
-      <c r="O202" s="27"/>
-      <c r="P202" s="27"/>
-      <c r="Q202" s="27"/>
-      <c r="R202" s="27"/>
-      <c r="S202" s="27"/>
-      <c r="T202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="27"/>
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="27"/>
+      <c r="K202" s="27"/>
+      <c r="L202" s="27"/>
+      <c r="M202" s="26"/>
+      <c r="N202" s="26"/>
+      <c r="O202" s="26"/>
+      <c r="P202" s="26"/>
+      <c r="Q202" s="26"/>
+      <c r="R202" s="26"/>
+      <c r="S202" s="26"/>
+      <c r="T202" s="26"/>
     </row>
     <row r="203" spans="1:20">
-      <c r="A203" s="27"/>
-      <c r="B203" s="27">
+      <c r="A203" s="26"/>
+      <c r="B203" s="26">
         <v>196</v>
       </c>
-      <c r="C203" s="27">
-        <v>1</v>
-      </c>
-      <c r="D203" s="28" t="s">
+      <c r="C203" s="26">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
         <v>225</v>
       </c>
-      <c r="E203" s="28"/>
-      <c r="F203" s="28"/>
-      <c r="G203" s="28"/>
-      <c r="H203" s="28"/>
-      <c r="I203" s="28"/>
-      <c r="J203" s="28"/>
-      <c r="K203" s="28"/>
-      <c r="L203" s="28"/>
-      <c r="M203" s="27"/>
-      <c r="N203" s="27"/>
-      <c r="O203" s="27"/>
-      <c r="P203" s="27"/>
-      <c r="Q203" s="27"/>
-      <c r="R203" s="27"/>
-      <c r="S203" s="27"/>
-      <c r="T203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="27"/>
+      <c r="K203" s="27"/>
+      <c r="L203" s="27"/>
+      <c r="M203" s="26"/>
+      <c r="N203" s="26"/>
+      <c r="O203" s="26"/>
+      <c r="P203" s="26"/>
+      <c r="Q203" s="26"/>
+      <c r="R203" s="26"/>
+      <c r="S203" s="26"/>
+      <c r="T203" s="26"/>
     </row>
     <row r="204" spans="1:20">
-      <c r="A204" s="27"/>
-      <c r="B204" s="27">
+      <c r="A204" s="26"/>
+      <c r="B204" s="26">
         <v>197</v>
       </c>
-      <c r="C204" s="27">
-        <v>1</v>
-      </c>
-      <c r="D204" s="27" t="s">
+      <c r="C204" s="26">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
         <v>226</v>
       </c>
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="27"/>
-      <c r="K204" s="27"/>
-      <c r="L204" s="27"/>
-      <c r="M204" s="27"/>
-      <c r="N204" s="27"/>
-      <c r="O204" s="27"/>
-      <c r="P204" s="27"/>
-      <c r="Q204" s="27"/>
-      <c r="R204" s="27"/>
-      <c r="S204" s="27"/>
-      <c r="T204" s="27"/>
+      <c r="E204" s="26"/>
+      <c r="F204" s="26"/>
+      <c r="G204" s="26"/>
+      <c r="H204" s="26"/>
+      <c r="I204" s="26"/>
+      <c r="J204" s="26"/>
+      <c r="K204" s="26"/>
+      <c r="L204" s="26"/>
+      <c r="M204" s="26"/>
+      <c r="N204" s="26"/>
+      <c r="O204" s="26"/>
+      <c r="P204" s="26"/>
+      <c r="Q204" s="26"/>
+      <c r="R204" s="26"/>
+      <c r="S204" s="26"/>
+      <c r="T204" s="26"/>
     </row>
     <row r="205" spans="1:20">
-      <c r="A205" s="27"/>
-      <c r="B205" s="27">
+      <c r="A205" s="26"/>
+      <c r="B205" s="26">
         <v>198</v>
       </c>
-      <c r="C205" s="27">
-        <v>1</v>
-      </c>
-      <c r="D205" s="27" t="s">
+      <c r="C205" s="26">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
         <v>227</v>
       </c>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27"/>
-      <c r="G205" s="27"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="27"/>
-      <c r="J205" s="27"/>
-      <c r="K205" s="27"/>
-      <c r="L205" s="27"/>
-      <c r="M205" s="27"/>
-      <c r="N205" s="27"/>
-      <c r="O205" s="27"/>
-      <c r="P205" s="27"/>
-      <c r="Q205" s="27"/>
-      <c r="R205" s="27"/>
-      <c r="S205" s="27"/>
-      <c r="T205" s="27"/>
+      <c r="E205" s="26"/>
+      <c r="F205" s="26"/>
+      <c r="G205" s="26"/>
+      <c r="H205" s="26"/>
+      <c r="I205" s="26"/>
+      <c r="J205" s="26"/>
+      <c r="K205" s="26"/>
+      <c r="L205" s="26"/>
+      <c r="M205" s="26"/>
+      <c r="N205" s="26"/>
+      <c r="O205" s="26"/>
+      <c r="P205" s="26"/>
+      <c r="Q205" s="26"/>
+      <c r="R205" s="26"/>
+      <c r="S205" s="26"/>
+      <c r="T205" s="26"/>
     </row>
     <row r="206" spans="1:20">
-      <c r="A206" s="27"/>
-      <c r="B206" s="27">
+      <c r="A206" s="26"/>
+      <c r="B206" s="26">
         <v>199</v>
       </c>
-      <c r="C206" s="27">
-        <v>1</v>
-      </c>
-      <c r="D206" s="27" t="s">
+      <c r="C206" s="26">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
         <v>228</v>
       </c>
-      <c r="E206" s="27"/>
-      <c r="F206" s="27"/>
-      <c r="G206" s="27"/>
-      <c r="H206" s="27"/>
-      <c r="I206" s="27"/>
-      <c r="J206" s="27"/>
-      <c r="K206" s="27"/>
-      <c r="L206" s="27"/>
-      <c r="M206" s="27"/>
-      <c r="N206" s="27"/>
-      <c r="O206" s="27"/>
-      <c r="P206" s="27"/>
-      <c r="Q206" s="27"/>
-      <c r="R206" s="27"/>
-      <c r="S206" s="27"/>
-      <c r="T206" s="27"/>
-    </row>
-    <row r="207" spans="1:20">
+      <c r="E206" s="26"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="26"/>
+      <c r="H206" s="26"/>
+      <c r="I206" s="26"/>
+      <c r="J206" s="26"/>
+      <c r="K206" s="26"/>
+      <c r="L206" s="26"/>
+      <c r="M206" s="26"/>
+      <c r="N206" s="26"/>
+      <c r="O206" s="26"/>
+      <c r="P206" s="26"/>
+      <c r="Q206" s="26"/>
+      <c r="R206" s="26"/>
+      <c r="S206" s="26"/>
+      <c r="T206" s="26"/>
+    </row>
+    <row r="207" spans="2:4">
       <c r="B207" s="8">
         <v>200</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="D207" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" spans="2:4">
       <c r="B208" s="8">
         <v>201</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
-      <c r="D208" s="8" t="s">
+      <c r="D208" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" spans="2:4">
       <c r="B209" s="8">
         <v>202</v>
       </c>
       <c r="C209" s="8">
         <v>1</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="D209" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="2:4">
       <c r="B210">
         <v>250</v>
       </c>
@@ -5473,7 +5562,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="2:4">
       <c r="B211">
         <v>251</v>
       </c>
@@ -5484,7 +5573,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="2:4">
       <c r="B212">
         <v>252</v>
       </c>
@@ -5495,7 +5584,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="2:4">
       <c r="B213">
         <v>253</v>
       </c>
@@ -5506,7 +5595,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" spans="2:4">
       <c r="B214">
         <v>254</v>
       </c>
@@ -5517,7 +5606,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="215" spans="1:20">
+    <row r="215" spans="2:4">
       <c r="B215">
         <v>255</v>
       </c>
@@ -5528,7 +5617,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="216" spans="1:20">
+    <row r="216" spans="2:4">
       <c r="B216">
         <v>256</v>
       </c>
@@ -5539,7 +5628,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="217" spans="1:20">
+    <row r="217" spans="2:4">
       <c r="B217">
         <v>257</v>
       </c>
@@ -5550,7 +5639,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" spans="2:4">
       <c r="B218">
         <v>258</v>
       </c>
@@ -5561,7 +5650,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" spans="2:4">
       <c r="B219">
         <v>259</v>
       </c>
@@ -5572,7 +5661,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" spans="2:4">
       <c r="B220">
         <v>260</v>
       </c>
@@ -5583,246 +5672,246 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" spans="2:4">
       <c r="B221">
         <v>261</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
-      <c r="D221" s="23" t="s">
+      <c r="D221" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="222" spans="1:20">
-      <c r="A222" s="27"/>
-      <c r="B222" s="27">
+      <c r="A222" s="26"/>
+      <c r="B222" s="26">
         <v>262</v>
       </c>
-      <c r="C222" s="27">
-        <v>1</v>
-      </c>
-      <c r="D222" s="27" t="s">
+      <c r="C222" s="26">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
         <v>244</v>
       </c>
-      <c r="E222" s="27"/>
-      <c r="F222" s="27"/>
-      <c r="G222" s="27"/>
-      <c r="H222" s="27"/>
-      <c r="I222" s="27"/>
-      <c r="J222" s="27"/>
-      <c r="K222" s="27"/>
-      <c r="L222" s="27"/>
-      <c r="M222" s="27"/>
-      <c r="N222" s="27"/>
-      <c r="O222" s="27"/>
-      <c r="P222" s="27"/>
-      <c r="Q222" s="27"/>
-      <c r="R222" s="27"/>
-      <c r="S222" s="27"/>
-      <c r="T222" s="27"/>
+      <c r="E222" s="26"/>
+      <c r="F222" s="26"/>
+      <c r="G222" s="26"/>
+      <c r="H222" s="26"/>
+      <c r="I222" s="26"/>
+      <c r="J222" s="26"/>
+      <c r="K222" s="26"/>
+      <c r="L222" s="26"/>
+      <c r="M222" s="26"/>
+      <c r="N222" s="26"/>
+      <c r="O222" s="26"/>
+      <c r="P222" s="26"/>
+      <c r="Q222" s="26"/>
+      <c r="R222" s="26"/>
+      <c r="S222" s="26"/>
+      <c r="T222" s="26"/>
     </row>
     <row r="223" spans="1:20">
-      <c r="A223" s="27"/>
-      <c r="B223" s="27">
+      <c r="A223" s="26"/>
+      <c r="B223" s="26">
         <v>263</v>
       </c>
-      <c r="C223" s="27">
-        <v>1</v>
-      </c>
-      <c r="D223" s="27" t="s">
+      <c r="C223" s="26">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
         <v>245</v>
       </c>
-      <c r="E223" s="27"/>
-      <c r="F223" s="27"/>
-      <c r="G223" s="27"/>
-      <c r="H223" s="27"/>
-      <c r="I223" s="27"/>
-      <c r="J223" s="27"/>
-      <c r="K223" s="27"/>
-      <c r="L223" s="27"/>
-      <c r="M223" s="27"/>
-      <c r="N223" s="27"/>
-      <c r="O223" s="27"/>
-      <c r="P223" s="27"/>
-      <c r="Q223" s="27"/>
-      <c r="R223" s="27"/>
-      <c r="S223" s="27"/>
-      <c r="T223" s="27"/>
+      <c r="E223" s="26"/>
+      <c r="F223" s="26"/>
+      <c r="G223" s="26"/>
+      <c r="H223" s="26"/>
+      <c r="I223" s="26"/>
+      <c r="J223" s="26"/>
+      <c r="K223" s="26"/>
+      <c r="L223" s="26"/>
+      <c r="M223" s="26"/>
+      <c r="N223" s="26"/>
+      <c r="O223" s="26"/>
+      <c r="P223" s="26"/>
+      <c r="Q223" s="26"/>
+      <c r="R223" s="26"/>
+      <c r="S223" s="26"/>
+      <c r="T223" s="26"/>
     </row>
     <row r="224" spans="1:20">
-      <c r="A224" s="27"/>
-      <c r="B224" s="27">
+      <c r="A224" s="26"/>
+      <c r="B224" s="26">
         <v>264</v>
       </c>
-      <c r="C224" s="27">
-        <v>1</v>
-      </c>
-      <c r="D224" s="27" t="s">
+      <c r="C224" s="26">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
         <v>246</v>
       </c>
-      <c r="E224" s="27"/>
-      <c r="F224" s="27"/>
-      <c r="G224" s="27"/>
-      <c r="H224" s="27"/>
-      <c r="I224" s="27"/>
-      <c r="J224" s="27"/>
-      <c r="K224" s="27"/>
-      <c r="L224" s="27"/>
-      <c r="M224" s="27"/>
-      <c r="N224" s="27"/>
-      <c r="O224" s="27"/>
-      <c r="P224" s="27"/>
-      <c r="Q224" s="27"/>
-      <c r="R224" s="27"/>
-      <c r="S224" s="27"/>
-      <c r="T224" s="27"/>
+      <c r="E224" s="26"/>
+      <c r="F224" s="26"/>
+      <c r="G224" s="26"/>
+      <c r="H224" s="26"/>
+      <c r="I224" s="26"/>
+      <c r="J224" s="26"/>
+      <c r="K224" s="26"/>
+      <c r="L224" s="26"/>
+      <c r="M224" s="26"/>
+      <c r="N224" s="26"/>
+      <c r="O224" s="26"/>
+      <c r="P224" s="26"/>
+      <c r="Q224" s="26"/>
+      <c r="R224" s="26"/>
+      <c r="S224" s="26"/>
+      <c r="T224" s="26"/>
     </row>
     <row r="225" spans="1:20">
-      <c r="A225" s="27"/>
-      <c r="B225" s="27">
+      <c r="A225" s="26"/>
+      <c r="B225" s="26">
         <v>265</v>
       </c>
-      <c r="C225" s="27">
-        <v>1</v>
-      </c>
-      <c r="D225" s="27" t="s">
+      <c r="C225" s="26">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
         <v>247</v>
       </c>
-      <c r="E225" s="27"/>
-      <c r="F225" s="27"/>
-      <c r="G225" s="27"/>
-      <c r="H225" s="27"/>
-      <c r="I225" s="27"/>
-      <c r="J225" s="27"/>
-      <c r="K225" s="27"/>
-      <c r="L225" s="27"/>
-      <c r="M225" s="27"/>
-      <c r="N225" s="27"/>
-      <c r="O225" s="27"/>
-      <c r="Q225" s="27"/>
-      <c r="R225" s="27"/>
-      <c r="S225" s="27"/>
-      <c r="T225" s="27"/>
-    </row>
-    <row r="226" spans="1:20">
-      <c r="A226" s="27"/>
-      <c r="B226" s="27">
+      <c r="E225" s="26"/>
+      <c r="F225" s="26"/>
+      <c r="G225" s="26"/>
+      <c r="H225" s="26"/>
+      <c r="I225" s="26"/>
+      <c r="J225" s="26"/>
+      <c r="K225" s="26"/>
+      <c r="L225" s="26"/>
+      <c r="M225" s="26"/>
+      <c r="N225" s="26"/>
+      <c r="O225" s="26"/>
+      <c r="Q225" s="26"/>
+      <c r="R225" s="26"/>
+      <c r="S225" s="26"/>
+      <c r="T225" s="26"/>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" s="26"/>
+      <c r="B226" s="26">
         <v>266</v>
       </c>
-      <c r="C226" s="27">
-        <v>1</v>
-      </c>
-      <c r="D226" s="27" t="s">
+      <c r="C226" s="26">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
         <v>248</v>
       </c>
-      <c r="E226" s="27"/>
-      <c r="F226" s="27"/>
-      <c r="G226" s="27"/>
-      <c r="H226" s="27"/>
-      <c r="I226" s="27"/>
-      <c r="J226" s="27"/>
-      <c r="K226" s="27"/>
-      <c r="L226" s="27"/>
-      <c r="M226" s="27"/>
-      <c r="N226" s="27"/>
-      <c r="O226" s="27"/>
-    </row>
-    <row r="227" spans="1:20">
-      <c r="A227" s="27"/>
-      <c r="B227" s="27">
+      <c r="E226" s="26"/>
+      <c r="F226" s="26"/>
+      <c r="G226" s="26"/>
+      <c r="H226" s="26"/>
+      <c r="I226" s="26"/>
+      <c r="J226" s="26"/>
+      <c r="K226" s="26"/>
+      <c r="L226" s="26"/>
+      <c r="M226" s="26"/>
+      <c r="N226" s="26"/>
+      <c r="O226" s="26"/>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227" s="26"/>
+      <c r="B227" s="26">
         <v>267</v>
       </c>
-      <c r="C227" s="27">
-        <v>1</v>
-      </c>
-      <c r="D227" s="27" t="s">
+      <c r="C227" s="26">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
         <v>249</v>
       </c>
-      <c r="E227" s="27"/>
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
-      <c r="H227" s="27"/>
-      <c r="I227" s="27"/>
-      <c r="J227" s="27"/>
-      <c r="K227" s="27"/>
-      <c r="L227" s="27"/>
-      <c r="M227" s="27"/>
-      <c r="N227" s="27"/>
-      <c r="O227" s="27"/>
-    </row>
-    <row r="228" spans="1:20" ht="15.75">
-      <c r="B228" s="27">
+      <c r="E227" s="26"/>
+      <c r="F227" s="26"/>
+      <c r="G227" s="26"/>
+      <c r="H227" s="26"/>
+      <c r="I227" s="26"/>
+      <c r="J227" s="26"/>
+      <c r="K227" s="26"/>
+      <c r="L227" s="26"/>
+      <c r="M227" s="26"/>
+      <c r="N227" s="26"/>
+      <c r="O227" s="26"/>
+    </row>
+    <row r="228" spans="2:18">
+      <c r="B228" s="26">
         <v>268</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
-      <c r="D228" s="27" t="s">
+      <c r="D228" t="s">
         <v>250</v>
       </c>
-      <c r="O228" s="29"/>
-      <c r="P228" s="27"/>
-      <c r="R228" s="29"/>
-    </row>
-    <row r="229" spans="1:20" ht="15.75">
-      <c r="B229" s="27">
+      <c r="O228" s="28"/>
+      <c r="P228" s="26"/>
+      <c r="R228" s="28"/>
+    </row>
+    <row r="229" spans="2:18">
+      <c r="B229" s="26">
         <v>269</v>
       </c>
-      <c r="C229" s="27">
-        <v>1</v>
-      </c>
-      <c r="D229" s="27" t="s">
+      <c r="C229" s="26">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
         <v>251</v>
       </c>
-      <c r="O229" s="29"/>
-      <c r="P229" s="27"/>
-      <c r="R229" s="29"/>
-    </row>
-    <row r="230" spans="1:20" ht="15.75">
-      <c r="B230" s="27">
+      <c r="O229" s="28"/>
+      <c r="P229" s="26"/>
+      <c r="R229" s="28"/>
+    </row>
+    <row r="230" spans="2:18">
+      <c r="B230" s="26">
         <v>270</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
-      <c r="D230" s="27" t="s">
+      <c r="D230" t="s">
         <v>252</v>
       </c>
-      <c r="O230" s="29"/>
-      <c r="P230" s="27"/>
-      <c r="R230" s="29"/>
-    </row>
-    <row r="231" spans="1:20" ht="15.75">
-      <c r="B231" s="27">
+      <c r="O230" s="28"/>
+      <c r="P230" s="26"/>
+      <c r="R230" s="28"/>
+    </row>
+    <row r="231" spans="2:18">
+      <c r="B231" s="26">
         <v>271</v>
       </c>
-      <c r="C231" s="27">
-        <v>1</v>
-      </c>
-      <c r="D231" s="27" t="s">
+      <c r="C231" s="26">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
         <v>253</v>
       </c>
-      <c r="O231" s="29"/>
-      <c r="P231" s="27"/>
-      <c r="R231" s="29"/>
-    </row>
-    <row r="232" spans="1:20" ht="15.75">
-      <c r="B232" s="27">
+      <c r="O231" s="28"/>
+      <c r="P231" s="26"/>
+      <c r="R231" s="28"/>
+    </row>
+    <row r="232" spans="2:18">
+      <c r="B232" s="26">
         <v>272</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
-      <c r="D232" s="27" t="s">
+      <c r="D232" t="s">
         <v>254</v>
       </c>
-      <c r="O232" s="29"/>
-      <c r="P232" s="27"/>
-      <c r="R232" s="29"/>
-    </row>
-    <row r="233" spans="1:20">
-      <c r="B233" s="27">
+      <c r="O232" s="28"/>
+      <c r="P232" s="26"/>
+      <c r="R232" s="28"/>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="B233" s="26">
         <v>273</v>
       </c>
       <c r="C233">
@@ -5832,8 +5921,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="234" spans="1:20">
-      <c r="B234" s="27">
+    <row r="234" spans="2:4">
+      <c r="B234" s="26">
         <v>274</v>
       </c>
       <c r="C234">
@@ -5843,8 +5932,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="235" spans="1:20">
-      <c r="B235" s="27">
+    <row r="235" spans="2:4">
+      <c r="B235" s="26">
         <v>275</v>
       </c>
       <c r="C235">
@@ -5854,8 +5943,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="236" spans="1:20">
-      <c r="B236" s="27">
+    <row r="236" spans="2:4">
+      <c r="B236" s="26">
         <v>276</v>
       </c>
       <c r="C236">
@@ -5865,8 +5954,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="237" spans="1:20">
-      <c r="B237" s="27">
+    <row r="237" spans="2:4">
+      <c r="B237" s="26">
         <v>277</v>
       </c>
       <c r="C237">
@@ -5876,8 +5965,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="238" spans="1:20">
-      <c r="B238" s="27">
+    <row r="238" spans="2:4">
+      <c r="B238" s="26">
         <v>278</v>
       </c>
       <c r="C238">
@@ -5887,8 +5976,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="239" spans="1:20">
-      <c r="B239" s="27">
+    <row r="239" spans="2:4">
+      <c r="B239" s="26">
         <v>279</v>
       </c>
       <c r="C239">
@@ -5898,8 +5987,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="240" spans="1:20">
-      <c r="B240" s="27">
+    <row r="240" spans="2:4">
+      <c r="B240" s="26">
         <v>280</v>
       </c>
       <c r="C240">
@@ -5909,8 +5998,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="241" spans="2:16">
-      <c r="B241" s="27">
+    <row r="241" spans="2:4">
+      <c r="B241" s="26">
         <v>281</v>
       </c>
       <c r="C241">
@@ -5920,8 +6009,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="242" spans="2:16">
-      <c r="B242" s="27">
+    <row r="242" spans="2:4">
+      <c r="B242" s="26">
         <v>282</v>
       </c>
       <c r="C242">
@@ -5931,8 +6020,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="243" spans="2:16">
-      <c r="B243" s="27">
+    <row r="243" spans="2:4">
+      <c r="B243" s="26">
         <v>283</v>
       </c>
       <c r="C243">
@@ -5942,8 +6031,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="244" spans="2:16">
-      <c r="B244" s="27">
+    <row r="244" spans="2:4">
+      <c r="B244" s="26">
         <v>284</v>
       </c>
       <c r="C244">
@@ -5953,8 +6042,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="245" spans="2:16">
-      <c r="B245" s="27">
+    <row r="245" spans="2:4">
+      <c r="B245" s="26">
         <v>285</v>
       </c>
       <c r="C245">
@@ -5964,8 +6053,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="246" spans="2:16">
-      <c r="B246" s="27">
+    <row r="246" spans="2:4">
+      <c r="B246" s="26">
         <v>286</v>
       </c>
       <c r="C246">
@@ -5975,8 +6064,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="247" spans="2:16">
-      <c r="B247" s="27">
+    <row r="247" spans="2:4">
+      <c r="B247" s="26">
         <v>287</v>
       </c>
       <c r="C247">
@@ -5986,8 +6075,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="248" spans="2:16">
-      <c r="B248" s="27">
+    <row r="248" spans="2:4">
+      <c r="B248" s="26">
         <v>288</v>
       </c>
       <c r="C248">
@@ -5997,8 +6086,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="249" spans="2:16">
-      <c r="B249" s="27">
+    <row r="249" spans="2:4">
+      <c r="B249" s="26">
         <v>289</v>
       </c>
       <c r="C249">
@@ -6008,8 +6097,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="250" spans="2:16">
-      <c r="B250" s="27">
+    <row r="250" spans="2:4">
+      <c r="B250" s="26">
         <v>290</v>
       </c>
       <c r="C250">
@@ -6019,8 +6108,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="251" spans="2:16">
-      <c r="B251" s="27">
+    <row r="251" spans="2:4">
+      <c r="B251" s="26">
         <v>291</v>
       </c>
       <c r="C251">
@@ -6030,8 +6119,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="252" spans="2:16">
-      <c r="B252" s="27">
+    <row r="252" spans="2:4">
+      <c r="B252" s="26">
         <v>292</v>
       </c>
       <c r="C252">
@@ -6041,8 +6130,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="253" spans="2:16">
-      <c r="B253" s="27">
+    <row r="253" spans="2:4">
+      <c r="B253" s="26">
         <v>293</v>
       </c>
       <c r="C253">
@@ -6052,137 +6141,137 @@
         <v>275</v>
       </c>
     </row>
-    <row r="254" spans="2:16" ht="15.75">
-      <c r="B254" s="27">
+    <row r="254" spans="2:16">
+      <c r="B254" s="26">
         <v>294</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
-      <c r="D254" s="27" t="s">
+      <c r="D254" t="s">
         <v>276</v>
       </c>
-      <c r="O254" s="29"/>
-      <c r="P254" s="27"/>
-    </row>
-    <row r="255" spans="2:16" ht="15.75">
-      <c r="B255" s="27">
+      <c r="O254" s="28"/>
+      <c r="P254" s="26"/>
+    </row>
+    <row r="255" spans="2:16">
+      <c r="B255" s="26">
         <v>295</v>
       </c>
-      <c r="C255" s="27">
-        <v>1</v>
-      </c>
-      <c r="D255" s="27" t="s">
+      <c r="C255" s="26">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
         <v>277</v>
       </c>
-      <c r="O255" s="29"/>
-      <c r="P255" s="27"/>
-    </row>
-    <row r="256" spans="2:16" ht="15.75">
-      <c r="B256" s="27">
+      <c r="O255" s="28"/>
+      <c r="P255" s="26"/>
+    </row>
+    <row r="256" spans="2:16">
+      <c r="B256" s="26">
         <v>296</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
-      <c r="D256" s="27" t="s">
+      <c r="D256" t="s">
         <v>278</v>
       </c>
-      <c r="O256" s="29"/>
-      <c r="P256" s="27"/>
-    </row>
-    <row r="257" spans="1:16" ht="15.75">
-      <c r="B257" s="27">
+      <c r="O256" s="28"/>
+      <c r="P256" s="26"/>
+    </row>
+    <row r="257" spans="2:16">
+      <c r="B257" s="26">
         <v>297</v>
       </c>
-      <c r="C257" s="27">
-        <v>1</v>
-      </c>
-      <c r="D257" s="27" t="s">
+      <c r="C257" s="26">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
         <v>279</v>
       </c>
-      <c r="O257" s="29"/>
-      <c r="P257" s="27"/>
-    </row>
-    <row r="258" spans="1:16" ht="15.75">
-      <c r="B258" s="27">
+      <c r="O257" s="28"/>
+      <c r="P257" s="26"/>
+    </row>
+    <row r="258" spans="2:16">
+      <c r="B258" s="26">
         <v>298</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
-      <c r="D258" s="27" t="s">
+      <c r="D258" t="s">
         <v>280</v>
       </c>
-      <c r="O258" s="29"/>
-      <c r="P258" s="27"/>
-    </row>
-    <row r="259" spans="1:16" ht="15.75">
-      <c r="B259" s="27">
+      <c r="O258" s="28"/>
+      <c r="P258" s="26"/>
+    </row>
+    <row r="259" spans="2:16">
+      <c r="B259" s="26">
         <v>299</v>
       </c>
-      <c r="C259" s="27">
-        <v>1</v>
-      </c>
-      <c r="D259" s="27" t="s">
+      <c r="C259" s="26">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
         <v>281</v>
       </c>
-      <c r="O259" s="29"/>
-      <c r="P259" s="27"/>
-    </row>
-    <row r="260" spans="1:16" ht="15.75">
-      <c r="B260" s="27">
+      <c r="O259" s="28"/>
+      <c r="P259" s="26"/>
+    </row>
+    <row r="260" spans="2:16">
+      <c r="B260" s="26">
         <v>300</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
-      <c r="D260" s="27" t="s">
+      <c r="D260" t="s">
         <v>282</v>
       </c>
-      <c r="O260" s="29"/>
-      <c r="P260" s="27"/>
-    </row>
-    <row r="261" spans="1:16" ht="15.75">
-      <c r="B261" s="27">
+      <c r="O260" s="28"/>
+      <c r="P260" s="26"/>
+    </row>
+    <row r="261" spans="2:16">
+      <c r="B261" s="26">
         <v>301</v>
       </c>
-      <c r="C261" s="27">
-        <v>1</v>
-      </c>
-      <c r="D261" s="27" t="s">
+      <c r="C261" s="26">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
         <v>283</v>
       </c>
-      <c r="O261" s="29"/>
-      <c r="P261" s="27"/>
-    </row>
-    <row r="262" spans="1:16" ht="15.75">
-      <c r="B262" s="27">
+      <c r="O261" s="28"/>
+      <c r="P261" s="26"/>
+    </row>
+    <row r="262" spans="2:16">
+      <c r="B262" s="26">
         <v>302</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
-      <c r="D262" s="27" t="s">
+      <c r="D262" t="s">
         <v>284</v>
       </c>
-      <c r="O262" s="29"/>
-      <c r="P262" s="27"/>
-    </row>
-    <row r="263" spans="1:16" ht="15.75">
-      <c r="B263" s="27">
+      <c r="O262" s="28"/>
+      <c r="P262" s="26"/>
+    </row>
+    <row r="263" spans="2:16">
+      <c r="B263" s="26">
         <v>303</v>
       </c>
-      <c r="C263" s="27">
-        <v>1</v>
-      </c>
-      <c r="D263" s="27" t="s">
+      <c r="C263" s="26">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
         <v>285</v>
       </c>
-      <c r="O263" s="29"/>
-      <c r="P263" s="27"/>
-    </row>
-    <row r="264" spans="1:16">
+      <c r="O263" s="28"/>
+      <c r="P263" s="26"/>
+    </row>
+    <row r="264" spans="2:4">
       <c r="B264">
         <v>304</v>
       </c>
@@ -6193,7 +6282,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>287</v>
       </c>
@@ -6207,7 +6296,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -6221,7 +6310,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>291</v>
       </c>
@@ -6235,7 +6324,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>293</v>
       </c>
@@ -6249,7 +6338,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>295</v>
       </c>
@@ -6259,11 +6348,11 @@
       <c r="C269">
         <v>1</v>
       </c>
-      <c r="D269" s="23" t="s">
+      <c r="D269" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>297</v>
       </c>
@@ -6277,75 +6366,75 @@
         <v>298</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="2:10">
       <c r="B271">
         <v>311</v>
       </c>
-      <c r="C271" s="27">
-        <v>1</v>
-      </c>
-      <c r="D271" s="28" t="s">
+      <c r="C271" s="26">
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
         <v>299</v>
       </c>
-      <c r="E271" s="28"/>
-      <c r="F271" s="28"/>
-      <c r="G271" s="28"/>
-      <c r="H271" s="28"/>
-      <c r="I271" s="28"/>
-      <c r="J271" s="28"/>
-    </row>
-    <row r="272" spans="1:16">
+      <c r="E271" s="27"/>
+      <c r="F271" s="27"/>
+      <c r="G271" s="27"/>
+      <c r="H271" s="27"/>
+      <c r="I271" s="27"/>
+      <c r="J271" s="27"/>
+    </row>
+    <row r="272" spans="2:10">
       <c r="B272">
         <v>312</v>
       </c>
-      <c r="C272" s="27">
-        <v>1</v>
-      </c>
-      <c r="D272" s="28" t="s">
+      <c r="C272" s="26">
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
         <v>300</v>
       </c>
-      <c r="E272" s="28"/>
-      <c r="F272" s="28"/>
-      <c r="G272" s="28"/>
-      <c r="H272" s="28"/>
-      <c r="I272" s="28"/>
-      <c r="J272" s="28"/>
-    </row>
-    <row r="273" spans="1:20">
+      <c r="E272" s="27"/>
+      <c r="F272" s="27"/>
+      <c r="G272" s="27"/>
+      <c r="H272" s="27"/>
+      <c r="I272" s="27"/>
+      <c r="J272" s="27"/>
+    </row>
+    <row r="273" spans="2:10">
       <c r="B273">
         <v>313</v>
       </c>
-      <c r="C273" s="27">
-        <v>1</v>
-      </c>
-      <c r="D273" s="28" t="s">
+      <c r="C273" s="26">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
         <v>301</v>
       </c>
-      <c r="E273" s="28"/>
-      <c r="F273" s="28"/>
-      <c r="G273" s="28"/>
-      <c r="H273" s="28"/>
-      <c r="I273" s="28"/>
-      <c r="J273" s="28"/>
-    </row>
-    <row r="274" spans="1:20">
+      <c r="E273" s="27"/>
+      <c r="F273" s="27"/>
+      <c r="G273" s="27"/>
+      <c r="H273" s="27"/>
+      <c r="I273" s="27"/>
+      <c r="J273" s="27"/>
+    </row>
+    <row r="274" spans="2:10">
       <c r="B274">
         <v>314</v>
       </c>
-      <c r="C274" s="27">
-        <v>1</v>
-      </c>
-      <c r="D274" s="28" t="s">
+      <c r="C274" s="26">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
         <v>302</v>
       </c>
-      <c r="E274" s="28"/>
-      <c r="F274" s="28"/>
-      <c r="G274" s="28"/>
-      <c r="H274" s="28"/>
-      <c r="I274" s="28"/>
-      <c r="J274" s="28"/>
-    </row>
-    <row r="275" spans="1:20">
+      <c r="E274" s="27"/>
+      <c r="F274" s="27"/>
+      <c r="G274" s="27"/>
+      <c r="H274" s="27"/>
+      <c r="I274" s="27"/>
+      <c r="J274" s="27"/>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>303</v>
       </c>
@@ -6359,7 +6448,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="276" spans="1:20">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>305</v>
       </c>
@@ -6373,8 +6462,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="277" spans="1:20">
-      <c r="A277" s="23" t="s">
+    <row r="277" spans="1:4">
+      <c r="A277" s="25" t="s">
         <v>307</v>
       </c>
       <c r="B277">
@@ -6383,12 +6472,12 @@
       <c r="C277">
         <v>3</v>
       </c>
-      <c r="D277" s="23" t="s">
+      <c r="D277" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:20">
-      <c r="A278" s="23" t="s">
+    <row r="278" spans="1:4">
+      <c r="A278" s="25" t="s">
         <v>309</v>
       </c>
       <c r="B278">
@@ -6397,12 +6486,12 @@
       <c r="C278">
         <v>3</v>
       </c>
-      <c r="D278" s="23" t="s">
+      <c r="D278" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="279" spans="1:20">
-      <c r="A279" s="23" t="s">
+    <row r="279" spans="1:4">
+      <c r="A279" s="25" t="s">
         <v>311</v>
       </c>
       <c r="B279">
@@ -6411,124 +6500,124 @@
       <c r="C279">
         <v>3</v>
       </c>
-      <c r="D279" s="23" t="s">
+      <c r="D279" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="280" spans="1:20">
-      <c r="A280" s="27"/>
-      <c r="B280" s="27">
+      <c r="A280" s="26"/>
+      <c r="B280" s="26">
         <v>320</v>
       </c>
-      <c r="C280" s="27">
-        <v>1</v>
-      </c>
-      <c r="D280" s="27" t="s">
+      <c r="C280" s="26">
+        <v>1</v>
+      </c>
+      <c r="D280" t="s">
         <v>313</v>
       </c>
-      <c r="E280" s="27"/>
-      <c r="F280" s="27"/>
-      <c r="G280" s="27"/>
-      <c r="H280" s="27"/>
-      <c r="I280" s="27"/>
-      <c r="J280" s="27"/>
-      <c r="K280" s="27"/>
-      <c r="L280" s="27"/>
-      <c r="M280" s="27"/>
-      <c r="N280" s="27"/>
-      <c r="O280" s="27"/>
-      <c r="P280" s="27"/>
-      <c r="Q280" s="27"/>
-      <c r="R280" s="27"/>
-      <c r="S280" s="27"/>
-      <c r="T280" s="27"/>
+      <c r="E280" s="26"/>
+      <c r="F280" s="26"/>
+      <c r="G280" s="26"/>
+      <c r="H280" s="26"/>
+      <c r="I280" s="26"/>
+      <c r="J280" s="26"/>
+      <c r="K280" s="26"/>
+      <c r="L280" s="26"/>
+      <c r="M280" s="26"/>
+      <c r="N280" s="26"/>
+      <c r="O280" s="26"/>
+      <c r="P280" s="26"/>
+      <c r="Q280" s="26"/>
+      <c r="R280" s="26"/>
+      <c r="S280" s="26"/>
+      <c r="T280" s="26"/>
     </row>
     <row r="281" spans="1:20">
-      <c r="A281" s="27"/>
-      <c r="B281" s="27">
+      <c r="A281" s="26"/>
+      <c r="B281" s="26">
         <v>321</v>
       </c>
-      <c r="C281" s="27">
-        <v>1</v>
-      </c>
-      <c r="D281" s="27" t="s">
+      <c r="C281" s="26">
+        <v>1</v>
+      </c>
+      <c r="D281" t="s">
         <v>314</v>
       </c>
-      <c r="E281" s="27"/>
-      <c r="F281" s="27"/>
-      <c r="G281" s="27"/>
-      <c r="H281" s="27"/>
-      <c r="I281" s="27"/>
-      <c r="J281" s="27"/>
-      <c r="K281" s="27"/>
-      <c r="L281" s="27"/>
-      <c r="M281" s="27"/>
-      <c r="N281" s="27"/>
-      <c r="O281" s="27"/>
-      <c r="P281" s="27"/>
-      <c r="Q281" s="27"/>
-      <c r="R281" s="27"/>
-      <c r="S281" s="27"/>
-      <c r="T281" s="27"/>
+      <c r="E281" s="26"/>
+      <c r="F281" s="26"/>
+      <c r="G281" s="26"/>
+      <c r="H281" s="26"/>
+      <c r="I281" s="26"/>
+      <c r="J281" s="26"/>
+      <c r="K281" s="26"/>
+      <c r="L281" s="26"/>
+      <c r="M281" s="26"/>
+      <c r="N281" s="26"/>
+      <c r="O281" s="26"/>
+      <c r="P281" s="26"/>
+      <c r="Q281" s="26"/>
+      <c r="R281" s="26"/>
+      <c r="S281" s="26"/>
+      <c r="T281" s="26"/>
     </row>
     <row r="282" spans="1:20">
-      <c r="A282" s="27"/>
-      <c r="B282" s="27">
+      <c r="A282" s="26"/>
+      <c r="B282" s="26">
         <v>322</v>
       </c>
-      <c r="C282" s="27">
-        <v>1</v>
-      </c>
-      <c r="D282" s="27" t="s">
+      <c r="C282" s="26">
+        <v>1</v>
+      </c>
+      <c r="D282" t="s">
         <v>315</v>
       </c>
-      <c r="E282" s="27"/>
-      <c r="F282" s="27"/>
-      <c r="G282" s="27"/>
-      <c r="H282" s="27"/>
-      <c r="I282" s="27"/>
-      <c r="J282" s="27"/>
-      <c r="K282" s="27"/>
-      <c r="L282" s="27"/>
-      <c r="M282" s="27"/>
-      <c r="N282" s="27"/>
-      <c r="O282" s="27"/>
-      <c r="P282" s="27"/>
-      <c r="Q282" s="27"/>
-      <c r="R282" s="27"/>
-      <c r="S282" s="27"/>
-      <c r="T282" s="27"/>
+      <c r="E282" s="26"/>
+      <c r="F282" s="26"/>
+      <c r="G282" s="26"/>
+      <c r="H282" s="26"/>
+      <c r="I282" s="26"/>
+      <c r="J282" s="26"/>
+      <c r="K282" s="26"/>
+      <c r="L282" s="26"/>
+      <c r="M282" s="26"/>
+      <c r="N282" s="26"/>
+      <c r="O282" s="26"/>
+      <c r="P282" s="26"/>
+      <c r="Q282" s="26"/>
+      <c r="R282" s="26"/>
+      <c r="S282" s="26"/>
+      <c r="T282" s="26"/>
     </row>
     <row r="283" spans="1:20">
-      <c r="A283" s="27"/>
-      <c r="B283" s="27">
+      <c r="A283" s="26"/>
+      <c r="B283" s="26">
         <v>323</v>
       </c>
-      <c r="C283" s="27">
-        <v>1</v>
-      </c>
-      <c r="D283" s="27" t="s">
+      <c r="C283" s="26">
+        <v>1</v>
+      </c>
+      <c r="D283" t="s">
         <v>316</v>
       </c>
-      <c r="E283" s="27"/>
-      <c r="F283" s="27"/>
-      <c r="G283" s="27"/>
-      <c r="H283" s="27"/>
-      <c r="I283" s="27"/>
-      <c r="J283" s="27"/>
-      <c r="K283" s="27"/>
-      <c r="L283" s="27"/>
-      <c r="M283" s="27"/>
-      <c r="N283" s="27"/>
-      <c r="O283" s="27"/>
-      <c r="P283" s="27"/>
-      <c r="Q283" s="27"/>
-      <c r="R283" s="27"/>
-      <c r="S283" s="27"/>
-      <c r="T283" s="27"/>
-    </row>
-    <row r="284" spans="1:20">
-      <c r="A284" s="23" t="s">
+      <c r="E283" s="26"/>
+      <c r="F283" s="26"/>
+      <c r="G283" s="26"/>
+      <c r="H283" s="26"/>
+      <c r="I283" s="26"/>
+      <c r="J283" s="26"/>
+      <c r="K283" s="26"/>
+      <c r="L283" s="26"/>
+      <c r="M283" s="26"/>
+      <c r="N283" s="26"/>
+      <c r="O283" s="26"/>
+      <c r="P283" s="26"/>
+      <c r="Q283" s="26"/>
+      <c r="R283" s="26"/>
+      <c r="S283" s="26"/>
+      <c r="T283" s="26"/>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="25" t="s">
         <v>317</v>
       </c>
       <c r="B284">
@@ -6537,12 +6626,12 @@
       <c r="C284">
         <v>1</v>
       </c>
-      <c r="D284" s="23" t="s">
+      <c r="D284" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="285" spans="1:20">
-      <c r="A285" s="23" t="s">
+    <row r="285" spans="1:4">
+      <c r="A285" s="25" t="s">
         <v>317</v>
       </c>
       <c r="B285">
@@ -6551,363 +6640,363 @@
       <c r="C285">
         <v>1</v>
       </c>
-      <c r="D285" s="23" t="s">
+      <c r="D285" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="286" spans="1:20">
-      <c r="A286" s="27"/>
+      <c r="A286" s="26"/>
       <c r="B286">
         <v>326</v>
       </c>
-      <c r="C286" s="27">
-        <v>1</v>
-      </c>
-      <c r="D286" s="28" t="s">
+      <c r="C286" s="26">
+        <v>1</v>
+      </c>
+      <c r="D286" t="s">
         <v>320</v>
       </c>
-      <c r="E286" s="28"/>
-      <c r="F286" s="28"/>
-      <c r="G286" s="28"/>
-      <c r="H286" s="28"/>
-      <c r="I286" s="28"/>
-      <c r="J286" s="28"/>
-      <c r="K286" s="28"/>
-      <c r="L286" s="28"/>
-      <c r="M286" s="27"/>
-      <c r="N286" s="27"/>
-      <c r="O286" s="27"/>
-      <c r="P286" s="27"/>
-      <c r="Q286" s="27"/>
-      <c r="R286" s="27"/>
-      <c r="S286" s="27"/>
-      <c r="T286" s="27"/>
+      <c r="E286" s="27"/>
+      <c r="F286" s="27"/>
+      <c r="G286" s="27"/>
+      <c r="H286" s="27"/>
+      <c r="I286" s="27"/>
+      <c r="J286" s="27"/>
+      <c r="K286" s="27"/>
+      <c r="L286" s="27"/>
+      <c r="M286" s="26"/>
+      <c r="N286" s="26"/>
+      <c r="O286" s="26"/>
+      <c r="P286" s="26"/>
+      <c r="Q286" s="26"/>
+      <c r="R286" s="26"/>
+      <c r="S286" s="26"/>
+      <c r="T286" s="26"/>
     </row>
     <row r="287" spans="1:20">
-      <c r="A287" s="27"/>
+      <c r="A287" s="26"/>
       <c r="B287">
         <v>327</v>
       </c>
-      <c r="C287" s="27">
-        <v>1</v>
-      </c>
-      <c r="D287" s="28" t="s">
+      <c r="C287" s="26">
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
         <v>321</v>
       </c>
-      <c r="E287" s="28"/>
-      <c r="F287" s="28"/>
-      <c r="G287" s="28"/>
-      <c r="H287" s="28"/>
-      <c r="I287" s="28"/>
-      <c r="J287" s="28"/>
-      <c r="K287" s="28"/>
-      <c r="L287" s="28"/>
-      <c r="M287" s="27"/>
-      <c r="N287" s="27"/>
-      <c r="O287" s="27"/>
-      <c r="P287" s="27"/>
-      <c r="Q287" s="27"/>
-      <c r="R287" s="27"/>
-      <c r="S287" s="27"/>
-      <c r="T287" s="27"/>
+      <c r="E287" s="27"/>
+      <c r="F287" s="27"/>
+      <c r="G287" s="27"/>
+      <c r="H287" s="27"/>
+      <c r="I287" s="27"/>
+      <c r="J287" s="27"/>
+      <c r="K287" s="27"/>
+      <c r="L287" s="27"/>
+      <c r="M287" s="26"/>
+      <c r="N287" s="26"/>
+      <c r="O287" s="26"/>
+      <c r="P287" s="26"/>
+      <c r="Q287" s="26"/>
+      <c r="R287" s="26"/>
+      <c r="S287" s="26"/>
+      <c r="T287" s="26"/>
     </row>
     <row r="288" spans="1:20">
-      <c r="A288" s="27"/>
+      <c r="A288" s="26"/>
       <c r="B288">
         <v>328</v>
       </c>
-      <c r="C288" s="27">
-        <v>1</v>
-      </c>
-      <c r="D288" s="28" t="s">
+      <c r="C288" s="26">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
         <v>322</v>
       </c>
-      <c r="E288" s="28"/>
-      <c r="F288" s="28"/>
-      <c r="G288" s="28"/>
-      <c r="H288" s="28"/>
-      <c r="I288" s="28"/>
-      <c r="J288" s="28"/>
-      <c r="K288" s="28"/>
-      <c r="L288" s="28"/>
-      <c r="M288" s="27"/>
-      <c r="N288" s="27"/>
-      <c r="O288" s="27"/>
-      <c r="P288" s="27"/>
-      <c r="Q288" s="27"/>
-      <c r="R288" s="27"/>
-      <c r="S288" s="27"/>
-      <c r="T288" s="27"/>
+      <c r="E288" s="27"/>
+      <c r="F288" s="27"/>
+      <c r="G288" s="27"/>
+      <c r="H288" s="27"/>
+      <c r="I288" s="27"/>
+      <c r="J288" s="27"/>
+      <c r="K288" s="27"/>
+      <c r="L288" s="27"/>
+      <c r="M288" s="26"/>
+      <c r="N288" s="26"/>
+      <c r="O288" s="26"/>
+      <c r="P288" s="26"/>
+      <c r="Q288" s="26"/>
+      <c r="R288" s="26"/>
+      <c r="S288" s="26"/>
+      <c r="T288" s="26"/>
     </row>
     <row r="289" spans="1:20">
-      <c r="A289" s="27"/>
+      <c r="A289" s="26"/>
       <c r="B289">
         <v>329</v>
       </c>
-      <c r="C289" s="27">
-        <v>1</v>
-      </c>
-      <c r="D289" s="28" t="s">
+      <c r="C289" s="26">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
         <v>323</v>
       </c>
-      <c r="E289" s="28"/>
-      <c r="F289" s="28"/>
-      <c r="G289" s="28"/>
-      <c r="H289" s="28"/>
-      <c r="I289" s="28"/>
-      <c r="J289" s="28"/>
-      <c r="K289" s="28"/>
-      <c r="L289" s="28"/>
-      <c r="M289" s="27"/>
-      <c r="N289" s="27"/>
-      <c r="O289" s="27"/>
-      <c r="P289" s="27"/>
-      <c r="Q289" s="27"/>
-      <c r="R289" s="27"/>
-      <c r="S289" s="27"/>
-      <c r="T289" s="27"/>
-    </row>
-    <row r="290" spans="1:20">
-      <c r="A290" s="23" t="s">
+      <c r="E289" s="27"/>
+      <c r="F289" s="27"/>
+      <c r="G289" s="27"/>
+      <c r="H289" s="27"/>
+      <c r="I289" s="27"/>
+      <c r="J289" s="27"/>
+      <c r="K289" s="27"/>
+      <c r="L289" s="27"/>
+      <c r="M289" s="26"/>
+      <c r="N289" s="26"/>
+      <c r="O289" s="26"/>
+      <c r="P289" s="26"/>
+      <c r="Q289" s="26"/>
+      <c r="R289" s="26"/>
+      <c r="S289" s="26"/>
+      <c r="T289" s="26"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="25" t="s">
         <v>324</v>
       </c>
       <c r="B290">
         <v>330</v>
       </c>
-      <c r="C290" s="27">
-        <v>1</v>
-      </c>
-      <c r="D290" s="25" t="s">
+      <c r="C290" s="26">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="291" spans="1:20" s="9" customFormat="1">
-      <c r="A291" s="30" t="s">
+    <row r="291" s="9" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A291" s="29" t="s">
         <v>326</v>
       </c>
       <c r="B291" s="9">
         <v>331</v>
       </c>
-      <c r="C291" s="31">
-        <v>1</v>
-      </c>
-      <c r="D291" s="32" t="s">
+      <c r="C291" s="30">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="292" spans="1:20">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>328</v>
       </c>
       <c r="B292">
         <v>332</v>
       </c>
-      <c r="C292" s="27">
+      <c r="C292" s="26">
         <v>1</v>
       </c>
       <c r="D292" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="293" spans="1:20">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>330</v>
       </c>
       <c r="B293">
         <v>333</v>
       </c>
-      <c r="C293" s="27">
+      <c r="C293" s="26">
         <v>1</v>
       </c>
       <c r="D293" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="294" spans="1:20" s="10" customFormat="1">
+    <row r="294" s="10" customFormat="1" spans="1:4">
       <c r="A294" s="10" t="s">
         <v>332</v>
       </c>
       <c r="B294" s="10">
         <v>334</v>
       </c>
-      <c r="C294" s="33">
-        <v>1</v>
-      </c>
-      <c r="D294" s="10" t="s">
+      <c r="C294" s="31">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="295" spans="1:20">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>334</v>
       </c>
       <c r="B295">
         <v>335</v>
       </c>
-      <c r="C295" s="27">
+      <c r="C295" s="26">
         <v>1</v>
       </c>
       <c r="D295" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="296" spans="1:20">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>336</v>
       </c>
       <c r="B296">
         <v>336</v>
       </c>
-      <c r="C296" s="27">
+      <c r="C296" s="26">
         <v>1</v>
       </c>
       <c r="D296" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="297" spans="1:20">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>338</v>
       </c>
       <c r="B297">
         <v>337</v>
       </c>
-      <c r="C297" s="27">
+      <c r="C297" s="26">
         <v>1</v>
       </c>
       <c r="D297" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="298" spans="1:20" s="11" customFormat="1">
+    <row r="298" s="11" customFormat="1" ht="14.25" spans="1:14">
       <c r="A298" s="11" t="s">
         <v>340</v>
       </c>
       <c r="B298">
         <v>338</v>
       </c>
-      <c r="C298" s="34">
-        <v>1</v>
-      </c>
-      <c r="D298" s="11" t="s">
+      <c r="C298" s="32">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
         <v>341</v>
       </c>
       <c r="N298"/>
     </row>
-    <row r="299" spans="1:20">
+    <row r="299" ht="14.25" spans="1:4">
       <c r="A299" t="s">
         <v>342</v>
       </c>
       <c r="B299">
         <v>339</v>
       </c>
-      <c r="C299" s="27">
+      <c r="C299" s="26">
         <v>1</v>
       </c>
       <c r="D299" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="300" spans="1:20" s="10" customFormat="1">
+    <row r="300" s="10" customFormat="1" spans="1:4">
       <c r="A300" s="10" t="s">
         <v>344</v>
       </c>
       <c r="B300" s="10">
         <v>340</v>
       </c>
-      <c r="C300" s="33">
-        <v>1</v>
-      </c>
-      <c r="D300" s="10" t="s">
+      <c r="C300" s="31">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="301" spans="1:20">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>346</v>
       </c>
       <c r="B301">
         <v>341</v>
       </c>
-      <c r="C301" s="27">
+      <c r="C301" s="26">
         <v>1</v>
       </c>
       <c r="D301" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="302" spans="1:20">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>348</v>
       </c>
       <c r="B302">
         <v>342</v>
       </c>
-      <c r="C302" s="27">
+      <c r="C302" s="26">
         <v>1</v>
       </c>
       <c r="D302" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="303" spans="1:20">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>350</v>
       </c>
       <c r="B303">
         <v>343</v>
       </c>
-      <c r="C303" s="27">
+      <c r="C303" s="26">
         <v>1</v>
       </c>
       <c r="D303" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="304" spans="1:20">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>352</v>
       </c>
       <c r="B304">
         <v>344</v>
       </c>
-      <c r="C304" s="27">
+      <c r="C304" s="26">
         <v>1</v>
       </c>
       <c r="D304" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>354</v>
       </c>
       <c r="B305">
         <v>345</v>
       </c>
-      <c r="C305" s="27">
+      <c r="C305" s="26">
         <v>1</v>
       </c>
       <c r="D305" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="306" spans="1:14" s="11" customFormat="1">
+    <row r="306" s="11" customFormat="1" ht="14.25" spans="1:14">
       <c r="A306" s="11" t="s">
         <v>356</v>
       </c>
       <c r="B306">
         <v>346</v>
       </c>
-      <c r="C306" s="34">
-        <v>1</v>
-      </c>
-      <c r="D306" s="11" t="s">
+      <c r="C306" s="32">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
         <v>357</v>
       </c>
       <c r="N306"/>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" ht="14.25" spans="1:4">
       <c r="A307" t="s">
         <v>358</v>
       </c>
@@ -6921,22 +7010,22 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:14" s="9" customFormat="1">
+    <row r="308" s="9" customFormat="1" ht="14.25" spans="1:4">
       <c r="A308" s="9" t="s">
         <v>360</v>
       </c>
       <c r="B308" s="9">
         <v>348</v>
       </c>
-      <c r="C308" s="31">
-        <v>1</v>
-      </c>
-      <c r="D308" s="9" t="s">
+      <c r="C308" s="30">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="309" spans="1:14" ht="16.5">
-      <c r="A309" s="35" t="s">
+    <row r="309" ht="16.5" spans="1:4">
+      <c r="A309" s="33" t="s">
         <v>362</v>
       </c>
       <c r="B309">
@@ -6945,12 +7034,12 @@
       <c r="C309">
         <v>1</v>
       </c>
-      <c r="D309" s="23" t="s">
+      <c r="D309" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="310" spans="1:14" ht="16.5">
-      <c r="A310" s="35" t="s">
+    <row r="310" ht="16.5" spans="1:4">
+      <c r="A310" s="33" t="s">
         <v>364</v>
       </c>
       <c r="B310">
@@ -6959,12 +7048,12 @@
       <c r="C310">
         <v>1</v>
       </c>
-      <c r="D310" s="23" t="s">
+      <c r="D310" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="311" spans="1:14" ht="16.5">
-      <c r="A311" s="35" t="s">
+    <row r="311" ht="16.5" spans="1:4">
+      <c r="A311" s="33" t="s">
         <v>366</v>
       </c>
       <c r="B311">
@@ -6973,12 +7062,12 @@
       <c r="C311">
         <v>1</v>
       </c>
-      <c r="D311" s="23" t="s">
+      <c r="D311" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="312" spans="1:14" ht="16.5">
-      <c r="A312" s="35" t="s">
+    <row r="312" ht="16.5" spans="1:4">
+      <c r="A312" s="33" t="s">
         <v>368</v>
       </c>
       <c r="B312">
@@ -6987,12 +7076,12 @@
       <c r="C312">
         <v>1</v>
       </c>
-      <c r="D312" s="23" t="s">
+      <c r="D312" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="313" spans="1:14" ht="15">
-      <c r="A313" s="36" t="s">
+    <row r="313" ht="15" spans="1:4">
+      <c r="A313" s="34" t="s">
         <v>370</v>
       </c>
       <c r="B313">
@@ -7001,12 +7090,12 @@
       <c r="C313">
         <v>1</v>
       </c>
-      <c r="D313" s="23" t="s">
+      <c r="D313" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="314" spans="1:14" ht="15">
-      <c r="A314" s="36" t="s">
+    <row r="314" ht="15" spans="1:4">
+      <c r="A314" s="34" t="s">
         <v>372</v>
       </c>
       <c r="B314">
@@ -7015,12 +7104,12 @@
       <c r="C314">
         <v>1</v>
       </c>
-      <c r="D314" s="23" t="s">
+      <c r="D314" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="315" spans="1:14" ht="15">
-      <c r="A315" s="36" t="s">
+    <row r="315" ht="15" spans="1:4">
+      <c r="A315" s="34" t="s">
         <v>374</v>
       </c>
       <c r="B315">
@@ -7029,12 +7118,12 @@
       <c r="C315">
         <v>1</v>
       </c>
-      <c r="D315" s="23" t="s">
+      <c r="D315" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="316" spans="1:14" s="12" customFormat="1" ht="15">
-      <c r="A316" s="37" t="s">
+    <row r="316" s="12" customFormat="1" ht="15" spans="1:4">
+      <c r="A316" s="35" t="s">
         <v>376</v>
       </c>
       <c r="B316" s="12">
@@ -7043,12 +7132,12 @@
       <c r="C316" s="12">
         <v>1</v>
       </c>
-      <c r="D316" s="38" t="s">
+      <c r="D316" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="317" spans="1:14" ht="15">
-      <c r="A317" s="36" t="s">
+    <row r="317" ht="15" spans="1:4">
+      <c r="A317" s="34" t="s">
         <v>378</v>
       </c>
       <c r="B317">
@@ -7057,12 +7146,12 @@
       <c r="C317">
         <v>1</v>
       </c>
-      <c r="D317" s="23" t="s">
+      <c r="D317" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="15">
-      <c r="A318" s="36" t="s">
+    <row r="318" ht="15" spans="1:4">
+      <c r="A318" s="34" t="s">
         <v>380</v>
       </c>
       <c r="B318">
@@ -7071,12 +7160,12 @@
       <c r="C318">
         <v>1</v>
       </c>
-      <c r="D318" s="23" t="s">
+      <c r="D318" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
-      <c r="A319" s="39" t="s">
+    <row r="319" ht="14.25" spans="1:4">
+      <c r="A319" s="36" t="s">
         <v>382</v>
       </c>
       <c r="B319">
@@ -7085,12 +7174,12 @@
       <c r="C319">
         <v>2</v>
       </c>
-      <c r="D319" s="23" t="s">
+      <c r="D319" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
-      <c r="A320" s="39" t="s">
+    <row r="320" ht="14.25" spans="1:4">
+      <c r="A320" s="36" t="s">
         <v>384</v>
       </c>
       <c r="B320">
@@ -7099,11 +7188,11 @@
       <c r="C320">
         <v>2</v>
       </c>
-      <c r="D320" s="23" t="s">
+      <c r="D320" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="321" spans="1:20">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>386</v>
       </c>
@@ -7117,7 +7206,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="322" spans="1:20">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>388</v>
       </c>
@@ -7131,7 +7220,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="323" spans="1:20">
+    <row r="323" spans="2:4">
       <c r="B323">
         <v>363</v>
       </c>
@@ -7142,7 +7231,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="324" spans="1:20">
+    <row r="324" spans="2:4">
       <c r="B324">
         <v>364</v>
       </c>
@@ -7153,8 +7242,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="325" spans="1:20">
-      <c r="A325" s="23" t="s">
+    <row r="325" spans="1:4">
+      <c r="A325" s="25" t="s">
         <v>392</v>
       </c>
       <c r="B325">
@@ -7163,12 +7252,12 @@
       <c r="C325">
         <v>1</v>
       </c>
-      <c r="D325" s="23" t="s">
+      <c r="D325" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="326" spans="1:20">
-      <c r="A326" s="23" t="s">
+    <row r="326" spans="1:4">
+      <c r="A326" s="25" t="s">
         <v>392</v>
       </c>
       <c r="B326">
@@ -7177,66 +7266,66 @@
       <c r="C326">
         <v>1</v>
       </c>
-      <c r="D326" s="40" t="s">
+      <c r="D326" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="327" spans="1:20">
+    <row r="327" spans="2:4">
       <c r="B327">
         <v>367</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
-      <c r="D327" s="40" t="s">
+      <c r="D327" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="328" spans="1:20">
+    <row r="328" spans="2:4">
       <c r="B328">
         <v>368</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
-      <c r="D328" s="40" t="s">
+      <c r="D328" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="329" spans="1:20">
+    <row r="329" spans="2:4">
       <c r="B329">
         <v>369</v>
       </c>
       <c r="C329">
         <v>1</v>
       </c>
-      <c r="D329" s="40" t="s">
+      <c r="D329" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="330" spans="1:20">
+    <row r="330" spans="2:4">
       <c r="B330">
         <v>370</v>
       </c>
       <c r="C330">
         <v>1</v>
       </c>
-      <c r="D330" s="40" t="s">
+      <c r="D330" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="331" spans="1:20">
+    <row r="331" spans="2:4">
       <c r="B331">
         <v>371</v>
       </c>
       <c r="C331">
         <v>1</v>
       </c>
-      <c r="D331" s="23" t="s">
+      <c r="D331" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="332" spans="1:20">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>397</v>
       </c>
@@ -7246,11 +7335,11 @@
       <c r="C332">
         <v>1</v>
       </c>
-      <c r="D332" s="23" t="s">
+      <c r="D332" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="333" spans="1:20">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>397</v>
       </c>
@@ -7260,295 +7349,295 @@
       <c r="C333">
         <v>1</v>
       </c>
-      <c r="D333" s="23" t="s">
+      <c r="D333" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="334" spans="1:20">
-      <c r="A334" s="27"/>
-      <c r="B334" s="27">
+      <c r="A334" s="26"/>
+      <c r="B334" s="26">
         <v>374</v>
       </c>
-      <c r="C334" s="27">
-        <v>1</v>
-      </c>
-      <c r="D334" s="27" t="s">
+      <c r="C334" s="26">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
         <v>400</v>
       </c>
-      <c r="E334" s="27"/>
-      <c r="F334" s="27"/>
-      <c r="G334" s="27"/>
-      <c r="H334" s="27"/>
-      <c r="I334" s="27"/>
-      <c r="J334" s="27"/>
-      <c r="K334" s="27"/>
-      <c r="L334" s="27"/>
-      <c r="M334" s="27"/>
-      <c r="N334" s="27"/>
-      <c r="O334" s="27"/>
-      <c r="P334" s="27"/>
-      <c r="Q334" s="27"/>
-      <c r="R334" s="27"/>
-      <c r="S334" s="27"/>
-      <c r="T334" s="27"/>
+      <c r="E334" s="26"/>
+      <c r="F334" s="26"/>
+      <c r="G334" s="26"/>
+      <c r="H334" s="26"/>
+      <c r="I334" s="26"/>
+      <c r="J334" s="26"/>
+      <c r="K334" s="26"/>
+      <c r="L334" s="26"/>
+      <c r="M334" s="26"/>
+      <c r="N334" s="26"/>
+      <c r="O334" s="26"/>
+      <c r="P334" s="26"/>
+      <c r="Q334" s="26"/>
+      <c r="R334" s="26"/>
+      <c r="S334" s="26"/>
+      <c r="T334" s="26"/>
     </row>
     <row r="335" spans="1:20">
-      <c r="A335" s="27"/>
-      <c r="B335" s="27">
+      <c r="A335" s="26"/>
+      <c r="B335" s="26">
         <v>375</v>
       </c>
-      <c r="C335" s="27">
-        <v>1</v>
-      </c>
-      <c r="D335" s="27" t="s">
+      <c r="C335" s="26">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
         <v>401</v>
       </c>
-      <c r="E335" s="27"/>
-      <c r="F335" s="27"/>
-      <c r="G335" s="27"/>
-      <c r="H335" s="27"/>
-      <c r="I335" s="27"/>
-      <c r="J335" s="27"/>
-      <c r="K335" s="27"/>
-      <c r="L335" s="27"/>
-      <c r="M335" s="27"/>
-      <c r="N335" s="27"/>
-      <c r="O335" s="27"/>
-      <c r="P335" s="27"/>
-      <c r="Q335" s="27"/>
-      <c r="R335" s="27"/>
-      <c r="S335" s="27"/>
-      <c r="T335" s="27"/>
+      <c r="E335" s="26"/>
+      <c r="F335" s="26"/>
+      <c r="G335" s="26"/>
+      <c r="H335" s="26"/>
+      <c r="I335" s="26"/>
+      <c r="J335" s="26"/>
+      <c r="K335" s="26"/>
+      <c r="L335" s="26"/>
+      <c r="M335" s="26"/>
+      <c r="N335" s="26"/>
+      <c r="O335" s="26"/>
+      <c r="P335" s="26"/>
+      <c r="Q335" s="26"/>
+      <c r="R335" s="26"/>
+      <c r="S335" s="26"/>
+      <c r="T335" s="26"/>
     </row>
     <row r="336" spans="1:20">
-      <c r="A336" s="27"/>
-      <c r="B336" s="27">
+      <c r="A336" s="26"/>
+      <c r="B336" s="26">
         <v>376</v>
       </c>
-      <c r="C336" s="27">
-        <v>1</v>
-      </c>
-      <c r="D336" s="27" t="s">
+      <c r="C336" s="26">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
         <v>402</v>
       </c>
-      <c r="E336" s="27"/>
-      <c r="F336" s="27"/>
-      <c r="G336" s="27"/>
-      <c r="H336" s="27"/>
-      <c r="I336" s="27"/>
-      <c r="J336" s="27"/>
-      <c r="K336" s="27"/>
-      <c r="L336" s="27"/>
-      <c r="M336" s="27"/>
-      <c r="N336" s="27"/>
-      <c r="O336" s="27"/>
-      <c r="P336" s="27"/>
-      <c r="Q336" s="27"/>
-      <c r="R336" s="27"/>
-      <c r="S336" s="27"/>
-      <c r="T336" s="27"/>
+      <c r="E336" s="26"/>
+      <c r="F336" s="26"/>
+      <c r="G336" s="26"/>
+      <c r="H336" s="26"/>
+      <c r="I336" s="26"/>
+      <c r="J336" s="26"/>
+      <c r="K336" s="26"/>
+      <c r="L336" s="26"/>
+      <c r="M336" s="26"/>
+      <c r="N336" s="26"/>
+      <c r="O336" s="26"/>
+      <c r="P336" s="26"/>
+      <c r="Q336" s="26"/>
+      <c r="R336" s="26"/>
+      <c r="S336" s="26"/>
+      <c r="T336" s="26"/>
     </row>
     <row r="337" spans="1:20">
-      <c r="A337" s="27"/>
-      <c r="B337" s="27">
+      <c r="A337" s="26"/>
+      <c r="B337" s="26">
         <v>377</v>
       </c>
-      <c r="C337" s="27">
-        <v>1</v>
-      </c>
-      <c r="D337" s="27" t="s">
+      <c r="C337" s="26">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
         <v>403</v>
       </c>
-      <c r="E337" s="27"/>
-      <c r="F337" s="27"/>
-      <c r="G337" s="27"/>
-      <c r="H337" s="27"/>
-      <c r="I337" s="27"/>
-      <c r="J337" s="27"/>
-      <c r="K337" s="27"/>
-      <c r="L337" s="27"/>
-      <c r="M337" s="27"/>
-      <c r="N337" s="27"/>
-      <c r="O337" s="27"/>
-      <c r="P337" s="27"/>
-      <c r="Q337" s="27"/>
-      <c r="R337" s="27"/>
-      <c r="S337" s="27"/>
-      <c r="T337" s="27"/>
+      <c r="E337" s="26"/>
+      <c r="F337" s="26"/>
+      <c r="G337" s="26"/>
+      <c r="H337" s="26"/>
+      <c r="I337" s="26"/>
+      <c r="J337" s="26"/>
+      <c r="K337" s="26"/>
+      <c r="L337" s="26"/>
+      <c r="M337" s="26"/>
+      <c r="N337" s="26"/>
+      <c r="O337" s="26"/>
+      <c r="P337" s="26"/>
+      <c r="Q337" s="26"/>
+      <c r="R337" s="26"/>
+      <c r="S337" s="26"/>
+      <c r="T337" s="26"/>
     </row>
     <row r="338" spans="1:20">
-      <c r="A338" s="27"/>
-      <c r="B338" s="27">
+      <c r="A338" s="26"/>
+      <c r="B338" s="26">
         <v>378</v>
       </c>
-      <c r="C338" s="27">
-        <v>1</v>
-      </c>
-      <c r="D338" s="28" t="s">
+      <c r="C338" s="26">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
         <v>404</v>
       </c>
-      <c r="E338" s="28"/>
-      <c r="F338" s="28"/>
-      <c r="G338" s="28"/>
-      <c r="H338" s="28"/>
-      <c r="I338" s="28"/>
-      <c r="J338" s="28"/>
-      <c r="K338" s="28"/>
-      <c r="L338" s="28"/>
-      <c r="M338" s="27"/>
-      <c r="N338" s="27"/>
-      <c r="O338" s="27"/>
-      <c r="P338" s="27"/>
-      <c r="Q338" s="27"/>
-      <c r="R338" s="27"/>
-      <c r="S338" s="27"/>
-      <c r="T338" s="27"/>
+      <c r="E338" s="27"/>
+      <c r="F338" s="27"/>
+      <c r="G338" s="27"/>
+      <c r="H338" s="27"/>
+      <c r="I338" s="27"/>
+      <c r="J338" s="27"/>
+      <c r="K338" s="27"/>
+      <c r="L338" s="27"/>
+      <c r="M338" s="26"/>
+      <c r="N338" s="26"/>
+      <c r="O338" s="26"/>
+      <c r="P338" s="26"/>
+      <c r="Q338" s="26"/>
+      <c r="R338" s="26"/>
+      <c r="S338" s="26"/>
+      <c r="T338" s="26"/>
     </row>
     <row r="339" spans="1:20">
-      <c r="A339" s="27"/>
-      <c r="B339" s="27">
+      <c r="A339" s="26"/>
+      <c r="B339" s="26">
         <v>379</v>
       </c>
-      <c r="C339" s="27">
-        <v>1</v>
-      </c>
-      <c r="D339" s="28" t="s">
+      <c r="C339" s="26">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
         <v>405</v>
       </c>
-      <c r="E339" s="28"/>
-      <c r="F339" s="28"/>
-      <c r="G339" s="28"/>
-      <c r="H339" s="28"/>
-      <c r="I339" s="28"/>
-      <c r="J339" s="28"/>
-      <c r="K339" s="28"/>
-      <c r="L339" s="28"/>
-      <c r="M339" s="27"/>
-      <c r="N339" s="27"/>
-      <c r="O339" s="27"/>
-      <c r="P339" s="27"/>
-      <c r="Q339" s="27"/>
-      <c r="R339" s="27"/>
-      <c r="S339" s="27"/>
-      <c r="T339" s="27"/>
+      <c r="E339" s="27"/>
+      <c r="F339" s="27"/>
+      <c r="G339" s="27"/>
+      <c r="H339" s="27"/>
+      <c r="I339" s="27"/>
+      <c r="J339" s="27"/>
+      <c r="K339" s="27"/>
+      <c r="L339" s="27"/>
+      <c r="M339" s="26"/>
+      <c r="N339" s="26"/>
+      <c r="O339" s="26"/>
+      <c r="P339" s="26"/>
+      <c r="Q339" s="26"/>
+      <c r="R339" s="26"/>
+      <c r="S339" s="26"/>
+      <c r="T339" s="26"/>
     </row>
     <row r="340" spans="1:20">
-      <c r="A340" s="27"/>
-      <c r="B340" s="27">
+      <c r="A340" s="26"/>
+      <c r="B340" s="26">
         <v>380</v>
       </c>
-      <c r="C340" s="27">
-        <v>1</v>
-      </c>
-      <c r="D340" s="28" t="s">
+      <c r="C340" s="26">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
         <v>406</v>
       </c>
-      <c r="E340" s="28"/>
-      <c r="F340" s="28"/>
-      <c r="G340" s="28"/>
-      <c r="H340" s="28"/>
-      <c r="I340" s="28"/>
-      <c r="J340" s="28"/>
-      <c r="K340" s="28"/>
-      <c r="L340" s="28"/>
-      <c r="M340" s="27"/>
-      <c r="N340" s="27"/>
-      <c r="O340" s="27"/>
-      <c r="P340" s="27"/>
-      <c r="Q340" s="27"/>
-      <c r="R340" s="27"/>
-      <c r="S340" s="27"/>
-      <c r="T340" s="27"/>
+      <c r="E340" s="27"/>
+      <c r="F340" s="27"/>
+      <c r="G340" s="27"/>
+      <c r="H340" s="27"/>
+      <c r="I340" s="27"/>
+      <c r="J340" s="27"/>
+      <c r="K340" s="27"/>
+      <c r="L340" s="27"/>
+      <c r="M340" s="26"/>
+      <c r="N340" s="26"/>
+      <c r="O340" s="26"/>
+      <c r="P340" s="26"/>
+      <c r="Q340" s="26"/>
+      <c r="R340" s="26"/>
+      <c r="S340" s="26"/>
+      <c r="T340" s="26"/>
     </row>
     <row r="341" spans="1:20">
-      <c r="A341" s="27"/>
-      <c r="B341" s="27">
+      <c r="A341" s="26"/>
+      <c r="B341" s="26">
         <v>381</v>
       </c>
-      <c r="C341" s="27">
-        <v>1</v>
-      </c>
-      <c r="D341" s="28" t="s">
+      <c r="C341" s="26">
+        <v>1</v>
+      </c>
+      <c r="D341" t="s">
         <v>407</v>
       </c>
-      <c r="E341" s="28"/>
-      <c r="F341" s="28"/>
-      <c r="G341" s="28"/>
-      <c r="H341" s="28"/>
-      <c r="I341" s="28"/>
-      <c r="J341" s="28"/>
-      <c r="K341" s="28"/>
-      <c r="L341" s="28"/>
-      <c r="M341" s="27"/>
-      <c r="N341" s="27"/>
-      <c r="O341" s="27"/>
-      <c r="P341" s="27"/>
-      <c r="Q341" s="27"/>
-      <c r="R341" s="27"/>
-      <c r="S341" s="27"/>
-      <c r="T341" s="27"/>
+      <c r="E341" s="27"/>
+      <c r="F341" s="27"/>
+      <c r="G341" s="27"/>
+      <c r="H341" s="27"/>
+      <c r="I341" s="27"/>
+      <c r="J341" s="27"/>
+      <c r="K341" s="27"/>
+      <c r="L341" s="27"/>
+      <c r="M341" s="26"/>
+      <c r="N341" s="26"/>
+      <c r="O341" s="26"/>
+      <c r="P341" s="26"/>
+      <c r="Q341" s="26"/>
+      <c r="R341" s="26"/>
+      <c r="S341" s="26"/>
+      <c r="T341" s="26"/>
     </row>
     <row r="342" spans="1:20">
-      <c r="A342" s="27"/>
-      <c r="B342" s="27">
+      <c r="A342" s="26"/>
+      <c r="B342" s="26">
         <v>382</v>
       </c>
-      <c r="C342" s="27">
-        <v>1</v>
-      </c>
-      <c r="D342" s="27" t="s">
+      <c r="C342" s="26">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
         <v>408</v>
       </c>
-      <c r="E342" s="27"/>
-      <c r="F342" s="27"/>
-      <c r="G342" s="27"/>
-      <c r="H342" s="27"/>
-      <c r="I342" s="27"/>
-      <c r="J342" s="27"/>
-      <c r="K342" s="27"/>
-      <c r="L342" s="27"/>
-      <c r="M342" s="27"/>
-      <c r="N342" s="27"/>
-      <c r="O342" s="27"/>
-      <c r="P342" s="27"/>
-      <c r="Q342" s="27"/>
-      <c r="R342" s="27"/>
-      <c r="S342" s="27"/>
-      <c r="T342" s="27"/>
+      <c r="E342" s="26"/>
+      <c r="F342" s="26"/>
+      <c r="G342" s="26"/>
+      <c r="H342" s="26"/>
+      <c r="I342" s="26"/>
+      <c r="J342" s="26"/>
+      <c r="K342" s="26"/>
+      <c r="L342" s="26"/>
+      <c r="M342" s="26"/>
+      <c r="N342" s="26"/>
+      <c r="O342" s="26"/>
+      <c r="P342" s="26"/>
+      <c r="Q342" s="26"/>
+      <c r="R342" s="26"/>
+      <c r="S342" s="26"/>
+      <c r="T342" s="26"/>
     </row>
     <row r="343" spans="1:20">
-      <c r="A343" s="27"/>
-      <c r="B343" s="27">
+      <c r="A343" s="26"/>
+      <c r="B343" s="26">
         <v>383</v>
       </c>
-      <c r="C343" s="27">
-        <v>1</v>
-      </c>
-      <c r="D343" s="27" t="s">
+      <c r="C343" s="26">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
         <v>409</v>
       </c>
-      <c r="E343" s="27"/>
-      <c r="F343" s="27"/>
-      <c r="G343" s="27"/>
-      <c r="H343" s="27"/>
-      <c r="I343" s="27"/>
-      <c r="J343" s="27"/>
-      <c r="K343" s="27"/>
-      <c r="L343" s="27"/>
-      <c r="M343" s="27"/>
-      <c r="N343" s="27"/>
-      <c r="O343" s="27"/>
-      <c r="P343" s="27"/>
-      <c r="Q343" s="27"/>
-      <c r="R343" s="27"/>
-      <c r="S343" s="27"/>
-      <c r="T343" s="27"/>
-    </row>
-    <row r="344" spans="1:20">
+      <c r="E343" s="26"/>
+      <c r="F343" s="26"/>
+      <c r="G343" s="26"/>
+      <c r="H343" s="26"/>
+      <c r="I343" s="26"/>
+      <c r="J343" s="26"/>
+      <c r="K343" s="26"/>
+      <c r="L343" s="26"/>
+      <c r="M343" s="26"/>
+      <c r="N343" s="26"/>
+      <c r="O343" s="26"/>
+      <c r="P343" s="26"/>
+      <c r="Q343" s="26"/>
+      <c r="R343" s="26"/>
+      <c r="S343" s="26"/>
+      <c r="T343" s="26"/>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>410</v>
       </c>
-      <c r="B344" s="27">
+      <c r="B344" s="26">
         <v>384</v>
       </c>
       <c r="C344">
@@ -7558,84 +7647,80 @@
         <v>411</v>
       </c>
     </row>
-    <row r="345" spans="1:20">
-      <c r="B345" s="27">
-        <f>B344+1</f>
+    <row r="345" spans="2:11">
+      <c r="B345" s="26">
         <v>385</v>
       </c>
-      <c r="C345" s="27">
-        <v>1</v>
-      </c>
-      <c r="D345" s="28" t="s">
+      <c r="C345" s="26">
+        <v>1</v>
+      </c>
+      <c r="D345" t="s">
         <v>412</v>
       </c>
-      <c r="E345" s="28"/>
-      <c r="F345" s="28"/>
-      <c r="G345" s="28"/>
-      <c r="H345" s="28"/>
-      <c r="I345" s="28"/>
-      <c r="J345" s="28"/>
-      <c r="K345" s="28"/>
-    </row>
-    <row r="346" spans="1:20">
-      <c r="B346" s="27">
-        <f>B345+1</f>
+      <c r="E345" s="27"/>
+      <c r="F345" s="27"/>
+      <c r="G345" s="27"/>
+      <c r="H345" s="27"/>
+      <c r="I345" s="27"/>
+      <c r="J345" s="27"/>
+      <c r="K345" s="27"/>
+    </row>
+    <row r="346" spans="2:11">
+      <c r="B346" s="26">
         <v>386</v>
       </c>
-      <c r="C346" s="27">
-        <v>1</v>
-      </c>
-      <c r="D346" s="28" t="s">
+      <c r="C346" s="26">
+        <v>1</v>
+      </c>
+      <c r="D346" t="s">
         <v>413</v>
       </c>
-      <c r="E346" s="28"/>
-      <c r="F346" s="28"/>
-      <c r="G346" s="28"/>
-      <c r="H346" s="28"/>
-      <c r="I346" s="28"/>
-      <c r="J346" s="28"/>
-      <c r="K346" s="28"/>
-    </row>
-    <row r="347" spans="1:20">
-      <c r="B347" s="27">
-        <f t="shared" ref="B347:B348" si="0">B346+1</f>
+      <c r="E346" s="27"/>
+      <c r="F346" s="27"/>
+      <c r="G346" s="27"/>
+      <c r="H346" s="27"/>
+      <c r="I346" s="27"/>
+      <c r="J346" s="27"/>
+      <c r="K346" s="27"/>
+    </row>
+    <row r="347" spans="2:11">
+      <c r="B347" s="26">
         <v>387</v>
       </c>
-      <c r="C347" s="27">
-        <v>1</v>
-      </c>
-      <c r="D347" s="28" t="s">
+      <c r="C347" s="26">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
         <v>414</v>
       </c>
-      <c r="E347" s="28"/>
-      <c r="F347" s="28"/>
-      <c r="G347" s="28"/>
-      <c r="H347" s="28"/>
-      <c r="I347" s="28"/>
-      <c r="J347" s="28"/>
-      <c r="K347" s="28"/>
-    </row>
-    <row r="348" spans="1:20" s="11" customFormat="1">
-      <c r="B348" s="34">
-        <f t="shared" si="0"/>
+      <c r="E347" s="27"/>
+      <c r="F347" s="27"/>
+      <c r="G347" s="27"/>
+      <c r="H347" s="27"/>
+      <c r="I347" s="27"/>
+      <c r="J347" s="27"/>
+      <c r="K347" s="27"/>
+    </row>
+    <row r="348" s="11" customFormat="1" ht="14.25" spans="2:11">
+      <c r="B348" s="32">
         <v>388</v>
       </c>
-      <c r="C348" s="34">
-        <v>1</v>
-      </c>
-      <c r="D348" s="41" t="s">
+      <c r="C348" s="32">
+        <v>1</v>
+      </c>
+      <c r="D348" t="s">
         <v>415</v>
       </c>
-      <c r="E348" s="41"/>
-      <c r="F348" s="41"/>
-      <c r="G348" s="41"/>
-      <c r="H348" s="41"/>
-      <c r="I348" s="41"/>
-      <c r="J348" s="41"/>
-      <c r="K348" s="41"/>
-    </row>
-    <row r="349" spans="1:20" ht="16.5">
-      <c r="A349" s="35" t="s">
+      <c r="E348" s="37"/>
+      <c r="F348" s="37"/>
+      <c r="G348" s="37"/>
+      <c r="H348" s="37"/>
+      <c r="I348" s="37"/>
+      <c r="J348" s="37"/>
+      <c r="K348" s="37"/>
+    </row>
+    <row r="349" ht="17.25" spans="1:4">
+      <c r="A349" s="33" t="s">
         <v>362</v>
       </c>
       <c r="B349">
@@ -7644,12 +7729,12 @@
       <c r="C349">
         <v>1</v>
       </c>
-      <c r="D349" s="23" t="s">
+      <c r="D349" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="16.5">
-      <c r="A350" s="35" t="s">
+    <row r="350" ht="16.5" spans="1:4">
+      <c r="A350" s="33" t="s">
         <v>364</v>
       </c>
       <c r="B350">
@@ -7658,12 +7743,12 @@
       <c r="C350">
         <v>1</v>
       </c>
-      <c r="D350" s="23" t="s">
+      <c r="D350" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="16.5">
-      <c r="A351" s="35" t="s">
+    <row r="351" ht="16.5" spans="1:4">
+      <c r="A351" s="33" t="s">
         <v>366</v>
       </c>
       <c r="B351">
@@ -7672,12 +7757,12 @@
       <c r="C351">
         <v>1</v>
       </c>
-      <c r="D351" s="23" t="s">
+      <c r="D351" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="16.5">
-      <c r="A352" s="35" t="s">
+    <row r="352" ht="16.5" spans="1:4">
+      <c r="A352" s="33" t="s">
         <v>368</v>
       </c>
       <c r="B352">
@@ -7686,12 +7771,12 @@
       <c r="C352">
         <v>1</v>
       </c>
-      <c r="D352" s="23" t="s">
+      <c r="D352" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15">
-      <c r="A353" s="36" t="s">
+    <row r="353" ht="15" spans="1:4">
+      <c r="A353" s="34" t="s">
         <v>370</v>
       </c>
       <c r="B353">
@@ -7700,12 +7785,12 @@
       <c r="C353">
         <v>1</v>
       </c>
-      <c r="D353" s="23" t="s">
+      <c r="D353" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15">
-      <c r="A354" s="36" t="s">
+    <row r="354" ht="15" spans="1:4">
+      <c r="A354" s="34" t="s">
         <v>372</v>
       </c>
       <c r="B354">
@@ -7714,12 +7799,12 @@
       <c r="C354">
         <v>1</v>
       </c>
-      <c r="D354" s="23" t="s">
+      <c r="D354" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15">
-      <c r="A355" s="36" t="s">
+    <row r="355" ht="15" spans="1:4">
+      <c r="A355" s="34" t="s">
         <v>374</v>
       </c>
       <c r="B355">
@@ -7728,12 +7813,12 @@
       <c r="C355">
         <v>1</v>
       </c>
-      <c r="D355" s="23" t="s">
+      <c r="D355" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15">
-      <c r="A356" s="37" t="s">
+    <row r="356" ht="15" spans="1:5">
+      <c r="A356" s="35" t="s">
         <v>376</v>
       </c>
       <c r="B356">
@@ -7742,13 +7827,13 @@
       <c r="C356" s="12">
         <v>1</v>
       </c>
-      <c r="D356" s="38" t="s">
+      <c r="D356" t="s">
         <v>377</v>
       </c>
       <c r="E356" s="12"/>
     </row>
-    <row r="357" spans="1:5" ht="15">
-      <c r="A357" s="36" t="s">
+    <row r="357" ht="15" spans="1:4">
+      <c r="A357" s="34" t="s">
         <v>378</v>
       </c>
       <c r="B357">
@@ -7757,12 +7842,12 @@
       <c r="C357">
         <v>1</v>
       </c>
-      <c r="D357" s="23" t="s">
+      <c r="D357" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="11" customFormat="1" ht="15">
-      <c r="A358" s="42" t="s">
+    <row r="358" s="11" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A358" s="38" t="s">
         <v>380</v>
       </c>
       <c r="B358">
@@ -7771,12 +7856,12 @@
       <c r="C358" s="11">
         <v>1</v>
       </c>
-      <c r="D358" s="43" t="s">
+      <c r="D358" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="16.5">
-      <c r="A359" s="35" t="s">
+    <row r="359" ht="17.25" spans="1:4">
+      <c r="A359" s="33" t="s">
         <v>362</v>
       </c>
       <c r="B359">
@@ -7785,12 +7870,12 @@
       <c r="C359">
         <v>1</v>
       </c>
-      <c r="D359" s="23" t="s">
+      <c r="D359" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="16.5">
-      <c r="A360" s="35" t="s">
+    <row r="360" ht="16.5" spans="1:4">
+      <c r="A360" s="33" t="s">
         <v>364</v>
       </c>
       <c r="B360">
@@ -7799,12 +7884,12 @@
       <c r="C360">
         <v>1</v>
       </c>
-      <c r="D360" s="23" t="s">
+      <c r="D360" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="16.5">
-      <c r="A361" s="35" t="s">
+    <row r="361" ht="16.5" spans="1:4">
+      <c r="A361" s="33" t="s">
         <v>416</v>
       </c>
       <c r="B361">
@@ -7813,12 +7898,12 @@
       <c r="C361">
         <v>1</v>
       </c>
-      <c r="D361" s="23" t="s">
+      <c r="D361" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="16.5">
-      <c r="A362" s="35" t="s">
+    <row r="362" ht="16.5" spans="1:4">
+      <c r="A362" s="33" t="s">
         <v>366</v>
       </c>
       <c r="B362">
@@ -7827,12 +7912,12 @@
       <c r="C362">
         <v>1</v>
       </c>
-      <c r="D362" s="23" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="15">
-      <c r="A363" s="36" t="s">
+      <c r="D362" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="363" ht="15" spans="1:4">
+      <c r="A363" s="34" t="s">
         <v>370</v>
       </c>
       <c r="B363">
@@ -7841,12 +7926,12 @@
       <c r="C363">
         <v>1</v>
       </c>
-      <c r="D363" s="23" t="s">
+      <c r="D363" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15">
-      <c r="A364" s="36" t="s">
+    <row r="364" ht="15" spans="1:4">
+      <c r="A364" s="34" t="s">
         <v>372</v>
       </c>
       <c r="B364">
@@ -7855,12 +7940,12 @@
       <c r="C364">
         <v>1</v>
       </c>
-      <c r="D364" s="23" t="s">
+      <c r="D364" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15">
-      <c r="A365" s="36" t="s">
+    <row r="365" ht="15" spans="1:4">
+      <c r="A365" s="34" t="s">
         <v>374</v>
       </c>
       <c r="B365">
@@ -7869,12 +7954,12 @@
       <c r="C365">
         <v>1</v>
       </c>
-      <c r="D365" s="23" t="s">
+      <c r="D365" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15">
-      <c r="A366" s="37" t="s">
+    <row r="366" ht="15" spans="1:5">
+      <c r="A366" s="35" t="s">
         <v>376</v>
       </c>
       <c r="B366">
@@ -7883,13 +7968,13 @@
       <c r="C366" s="12">
         <v>1</v>
       </c>
-      <c r="D366" s="38" t="s">
+      <c r="D366" t="s">
         <v>377</v>
       </c>
       <c r="E366" s="12"/>
     </row>
-    <row r="367" spans="1:5" ht="15">
-      <c r="A367" s="36" t="s">
+    <row r="367" ht="15" spans="1:4">
+      <c r="A367" s="34" t="s">
         <v>378</v>
       </c>
       <c r="B367">
@@ -7898,12 +7983,12 @@
       <c r="C367">
         <v>1</v>
       </c>
-      <c r="D367" s="23" t="s">
+      <c r="D367" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15">
-      <c r="A368" s="36" t="s">
+    <row r="368" ht="15" spans="1:4">
+      <c r="A368" s="34" t="s">
         <v>380</v>
       </c>
       <c r="B368">
@@ -7912,13 +7997,13 @@
       <c r="C368">
         <v>1</v>
       </c>
-      <c r="D368" s="23" t="s">
+      <c r="D368" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B369">
         <v>420</v>
@@ -7927,10 +8012,10 @@
         <v>1</v>
       </c>
       <c r="D369" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4">
       <c r="B370">
         <v>421</v>
       </c>
@@ -7938,12 +8023,12 @@
         <v>1</v>
       </c>
       <c r="D370" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="25" t="s">
         <v>421</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="23" t="s">
-        <v>422</v>
       </c>
       <c r="B371">
         <v>422</v>
@@ -7951,13 +8036,13 @@
       <c r="C371">
         <v>1</v>
       </c>
-      <c r="D371" s="23" t="s">
-        <v>423</v>
+      <c r="D371" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="372" spans="1:4">
-      <c r="A372" s="23" t="s">
-        <v>422</v>
+      <c r="A372" s="25" t="s">
+        <v>421</v>
       </c>
       <c r="B372">
         <v>423</v>
@@ -7965,13 +8050,13 @@
       <c r="C372">
         <v>1</v>
       </c>
-      <c r="D372" s="23" t="s">
-        <v>424</v>
+      <c r="D372" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="373" spans="1:4">
-      <c r="A373" s="23" t="s">
-        <v>422</v>
+      <c r="A373" s="25" t="s">
+        <v>421</v>
       </c>
       <c r="B373">
         <v>424</v>
@@ -7979,13 +8064,13 @@
       <c r="C373">
         <v>1</v>
       </c>
-      <c r="D373" s="23" t="s">
+      <c r="D373" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="25" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="B374">
         <v>425</v>
@@ -7993,13 +8078,13 @@
       <c r="C374">
         <v>3</v>
       </c>
-      <c r="D374" s="23" t="s">
-        <v>427</v>
+      <c r="D374" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B375">
         <v>426</v>
@@ -8008,12 +8093,12 @@
         <v>1</v>
       </c>
       <c r="D375" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B376">
         <v>427</v>
@@ -8022,12 +8107,12 @@
         <v>1</v>
       </c>
       <c r="D376" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B377">
         <v>428</v>
@@ -8036,12 +8121,12 @@
         <v>1</v>
       </c>
       <c r="D377" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B378">
         <v>429</v>
@@ -8050,12 +8135,12 @@
         <v>1</v>
       </c>
       <c r="D378" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B379">
         <v>430</v>
@@ -8064,12 +8149,12 @@
         <v>1</v>
       </c>
       <c r="D379" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B380">
         <v>431</v>
@@ -8078,12 +8163,12 @@
         <v>1</v>
       </c>
       <c r="D380" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B381">
         <v>432</v>
@@ -8092,12 +8177,12 @@
         <v>1</v>
       </c>
       <c r="D381" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B382">
         <v>433</v>
@@ -8106,12 +8191,12 @@
         <v>1</v>
       </c>
       <c r="D382" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B383">
         <v>434</v>
@@ -8120,12 +8205,12 @@
         <v>1</v>
       </c>
       <c r="D383" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B384">
         <v>435</v>
@@ -8134,12 +8219,12 @@
         <v>1</v>
       </c>
       <c r="D384" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="25" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="44" t="s">
-        <v>451</v>
       </c>
       <c r="B385">
         <v>436</v>
@@ -8147,13 +8232,13 @@
       <c r="C385">
         <v>1</v>
       </c>
-      <c r="D385" s="44" t="s">
-        <v>450</v>
+      <c r="D385" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="386" spans="1:4">
-      <c r="A386" s="44" t="s">
-        <v>452</v>
+      <c r="A386" s="25" t="s">
+        <v>449</v>
       </c>
       <c r="B386">
         <v>437</v>
@@ -8161,131 +8246,142 @@
       <c r="C386">
         <v>1</v>
       </c>
-      <c r="D386" s="44" t="s">
-        <v>453</v>
+      <c r="D386" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="387" ht="14.25" spans="1:4">
+      <c r="A387" t="s">
+        <v>451</v>
+      </c>
+      <c r="B387">
+        <v>438</v>
+      </c>
+      <c r="C387">
+        <v>4</v>
+      </c>
+      <c r="D387" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="B197">
-    <cfRule type="duplicateValues" dxfId="50" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="duplicateValues" dxfId="49" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="duplicateValues" dxfId="48" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B221">
-    <cfRule type="duplicateValues" dxfId="47" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B385">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B386">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B193:B196">
+    <cfRule type="duplicateValues" dxfId="0" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B291:B308">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B309:B331">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B332:B333">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B345:B348">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B349:B370">
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B371:B372">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B371:B373">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D387">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B384 B387:B1048576">
-    <cfRule type="duplicateValues" dxfId="46" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B193:B196">
-    <cfRule type="duplicateValues" dxfId="45" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B291:B308">
-    <cfRule type="duplicateValues" dxfId="44" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B309:B331">
-    <cfRule type="duplicateValues" dxfId="41" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B332:B333">
-    <cfRule type="duplicateValues" dxfId="39" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B345:B348">
-    <cfRule type="duplicateValues" dxfId="37" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B349:B370">
-    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B371:B372">
-    <cfRule type="duplicateValues" dxfId="32" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B371:B373">
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B373:B384 B1:B2 B4:B7 B9:B331 B387:B1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B373:B384 B1:B2 B4:B344 B387:B1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B373:B384 B1:B2 B4:B7 B9:B206 B210:B279 B284:B290 B387:B1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B373:B384 B1:B2 B4:B7 B9:B279 B284:B290 B387:B1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B373:B384 B7 B9:B173 B182:B192 B210:B220 B264:B279 B284:B290 B387:B1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B385">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B385">
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B385">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B385">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B385">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B385">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B386">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B386">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B386">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B386">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B386">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B386">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="15" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -8296,33 +8392,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>